--- a/sample_gemini.xlsx
+++ b/sample_gemini.xlsx
@@ -8268,7 +8268,7 @@
       </c>
       <c r="D1" s="20" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E1" s="21" t="n"/>
@@ -8289,7 +8289,7 @@
       </c>
       <c r="I1" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J1" s="22" t="n"/>
@@ -8423,10 +8423,10 @@
         <v>1000000</v>
       </c>
       <c r="C3" s="20" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D3" s="20" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E3" s="21" t="n"/>
       <c r="F3" s="21" t="n">
@@ -8436,10 +8436,10 @@
         <v>500000</v>
       </c>
       <c r="H3" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I3" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J3" s="22" t="n"/>
       <c r="K3" s="1" t="n"/>
@@ -8450,21 +8450,21 @@
         <v>500000</v>
       </c>
       <c r="N3" s="22" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O3" s="22">
         <f>L3&amp;"|"&amp;M3</f>
         <v/>
       </c>
       <c r="P3" s="22" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="Q3" s="22">
         <f>L3&amp;"|"&amp;M3</f>
         <v/>
       </c>
       <c r="R3" s="22" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1">
@@ -8501,10 +8501,10 @@
         <v>500000</v>
       </c>
       <c r="C4" s="20" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D4" s="20" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E4" s="21" t="n"/>
       <c r="F4" s="21" t="n"/>
@@ -8520,21 +8520,21 @@
         <v>250000</v>
       </c>
       <c r="N4" s="22" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O4" s="22">
         <f>L4&amp;"|"&amp;M4</f>
         <v/>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="Q4" s="22">
         <f>L4&amp;"|"&amp;M4</f>
         <v/>
       </c>
       <c r="R4" s="22" t="n">
-        <v>11500</v>
+        <v>11250</v>
       </c>
       <c r="S4" s="1" t="n"/>
       <c r="T4" s="1">
@@ -8582,21 +8582,21 @@
         <v>2000000</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O5" s="22">
         <f>L5&amp;"|"&amp;M5</f>
         <v/>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="Q5" s="22">
         <f>L5&amp;"|"&amp;M5</f>
         <v/>
       </c>
       <c r="R5" s="22" t="n">
-        <v>99000</v>
+        <v>98750</v>
       </c>
       <c r="S5" s="1" t="n"/>
       <c r="T5" s="1">
@@ -8644,21 +8644,21 @@
         <v>500000</v>
       </c>
       <c r="N6" s="22" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O6" s="22">
         <f>L6&amp;"|"&amp;M6</f>
         <v/>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="Q6" s="22">
         <f>L6&amp;"|"&amp;M6</f>
         <v/>
       </c>
       <c r="R6" s="22" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="S6" s="1" t="n"/>
       <c r="T6" s="1">
@@ -8706,21 +8706,21 @@
         <v>500000</v>
       </c>
       <c r="N7" s="22" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O7" s="22">
         <f>L7&amp;"|"&amp;M7</f>
         <v/>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="Q7" s="22">
         <f>L7&amp;"|"&amp;M7</f>
         <v/>
       </c>
       <c r="R7" s="22" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="S7" s="1" t="n"/>
       <c r="T7" s="1">
@@ -8757,10 +8757,10 @@
       </c>
       <c r="B8" s="20" t="n"/>
       <c r="C8" s="20" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D8" s="20" t="n">
-        <v>73000</v>
+        <v>72500</v>
       </c>
       <c r="E8" s="21" t="n"/>
       <c r="F8" s="21" t="inlineStr">
@@ -8769,10 +8769,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I8" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J8" s="22" t="n"/>
       <c r="K8" s="1" t="n"/>
@@ -8783,21 +8783,21 @@
         <v>1000000</v>
       </c>
       <c r="N8" s="22" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O8" s="22">
         <f>L8&amp;"|"&amp;M8</f>
         <v/>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="Q8" s="22">
         <f>L8&amp;"|"&amp;M8</f>
         <v/>
       </c>
       <c r="R8" s="22" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="S8" s="1" t="n"/>
       <c r="T8" s="1">
@@ -8845,21 +8845,21 @@
         <v>1000000</v>
       </c>
       <c r="N9" s="22" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O9" s="22">
         <f>L9&amp;"|"&amp;M9</f>
         <v/>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="Q9" s="22">
         <f>L9&amp;"|"&amp;M9</f>
         <v/>
       </c>
       <c r="R9" s="22" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="S9" s="1" t="n"/>
       <c r="T9" s="1">
@@ -8906,7 +8906,7 @@
       </c>
       <c r="D10" s="20" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -8927,7 +8927,7 @@
       </c>
       <c r="I10" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J10" s="22" t="n"/>
@@ -8939,21 +8939,21 @@
         <v>500000</v>
       </c>
       <c r="N10" s="22" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O10" s="22">
         <f>L10&amp;"|"&amp;M10</f>
         <v/>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="Q10" s="22">
         <f>L10&amp;"|"&amp;M10</f>
         <v/>
       </c>
       <c r="R10" s="22" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="S10" s="1" t="n"/>
       <c r="T10" s="1">
@@ -9033,21 +9033,21 @@
         <v>500000</v>
       </c>
       <c r="N11" s="22" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O11" s="22">
         <f>L11&amp;"|"&amp;M11</f>
         <v/>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="Q11" s="22">
         <f>L11&amp;"|"&amp;M11</f>
         <v/>
       </c>
       <c r="R11" s="22" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="S11" s="1" t="n"/>
       <c r="T11" s="1">
@@ -9084,10 +9084,10 @@
         <v>500000</v>
       </c>
       <c r="C12" s="20" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D12" s="20" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E12" s="21" t="n"/>
       <c r="F12" s="21" t="n">
@@ -9097,10 +9097,10 @@
         <v>500000</v>
       </c>
       <c r="H12" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I12" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="1" t="n"/>
@@ -9111,21 +9111,21 @@
         <v>1000000</v>
       </c>
       <c r="N12" s="22" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O12" s="22">
         <f>L12&amp;"|"&amp;M12</f>
         <v/>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="Q12" s="22">
         <f>L12&amp;"|"&amp;M12</f>
         <v/>
       </c>
       <c r="R12" s="22" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="S12" s="1" t="n"/>
       <c r="T12" s="1">
@@ -9173,21 +9173,21 @@
         <v>1000000</v>
       </c>
       <c r="N13" s="1" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O13" s="22">
         <f>L13&amp;"|"&amp;M13</f>
         <v/>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="Q13" s="22">
         <f>L13&amp;"|"&amp;M13</f>
         <v/>
       </c>
       <c r="R13" s="22" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="S13" s="1" t="n"/>
       <c r="T13" s="1">
@@ -9235,21 +9235,21 @@
         <v>1000000</v>
       </c>
       <c r="N14" s="22" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O14" s="22">
         <f>L14&amp;"|"&amp;M14</f>
         <v/>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="Q14" s="22">
         <f>L14&amp;"|"&amp;M14</f>
         <v/>
       </c>
       <c r="R14" s="22" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="S14" s="1" t="n"/>
       <c r="T14" s="1">
@@ -9297,21 +9297,21 @@
         <v>500000</v>
       </c>
       <c r="N15" s="22" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O15" s="22">
         <f>L15&amp;"|"&amp;M15</f>
         <v/>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="Q15" s="22">
         <f>L15&amp;"|"&amp;M15</f>
         <v/>
       </c>
       <c r="R15" s="22" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="S15" s="1" t="n"/>
       <c r="T15" s="1">
@@ -9359,21 +9359,21 @@
         <v>1000000</v>
       </c>
       <c r="N16" s="22" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O16" s="22">
         <f>L16&amp;"|"&amp;M16</f>
         <v/>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="Q16" s="22">
         <f>L16&amp;"|"&amp;M16</f>
         <v/>
       </c>
       <c r="R16" s="22" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="S16" s="1" t="n"/>
       <c r="T16" s="1">
@@ -9410,10 +9410,10 @@
       </c>
       <c r="B17" s="20" t="n"/>
       <c r="C17" s="20" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D17" s="20" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="21" t="inlineStr">
@@ -9422,10 +9422,10 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I17" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="1" t="n"/>
@@ -9482,21 +9482,21 @@
         <v>250000</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O18" s="22">
         <f>L18&amp;"|"&amp;M18</f>
         <v/>
       </c>
       <c r="P18" s="22" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="Q18" s="22">
         <f>L18&amp;"|"&amp;M18</f>
         <v/>
       </c>
       <c r="R18" s="22" t="n">
-        <v>11500</v>
+        <v>11250</v>
       </c>
       <c r="S18" s="1" t="n"/>
       <c r="T18" s="1">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="D19" s="20" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E19" s="2" t="n"/>
@@ -9564,7 +9564,7 @@
       </c>
       <c r="I19" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
@@ -9689,10 +9689,10 @@
         <v>1000000</v>
       </c>
       <c r="C21" s="20" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D21" s="20" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="21" t="n">
@@ -9702,10 +9702,10 @@
         <v>1000000</v>
       </c>
       <c r="H21" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I21" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J21" s="1" t="n"/>
       <c r="K21" s="1" t="n"/>
@@ -9765,10 +9765,10 @@
         <v>2000000</v>
       </c>
       <c r="C22" s="20" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D22" s="20" t="n">
-        <v>99000</v>
+        <v>98750</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="21" t="n">
@@ -9778,10 +9778,10 @@
         <v>1000000</v>
       </c>
       <c r="H22" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I22" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J22" s="1" t="n"/>
       <c r="K22" s="1" t="n"/>
@@ -9832,10 +9832,10 @@
         <v>1000000</v>
       </c>
       <c r="H23" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I23" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J23" s="1" t="n"/>
       <c r="K23" s="1" t="n"/>
@@ -9980,10 +9980,10 @@
       </c>
       <c r="B26" s="20" t="n"/>
       <c r="C26" s="20" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D26" s="20" t="n">
-        <v>148000</v>
+        <v>147500</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="21" t="inlineStr">
@@ -9992,10 +9992,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="I26" s="21" t="n">
-        <v>147000</v>
+        <v>146250</v>
       </c>
       <c r="J26" s="1" t="n"/>
       <c r="K26" s="1" t="n"/>
@@ -10097,7 +10097,7 @@
       </c>
       <c r="D28" s="20" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E28" s="2" t="n"/>
@@ -10118,7 +10118,7 @@
       </c>
       <c r="I28" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J28" s="1" t="n"/>
@@ -10242,10 +10242,10 @@
         <v>1000000</v>
       </c>
       <c r="C30" s="20" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D30" s="20" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="21" t="n">
@@ -10255,10 +10255,10 @@
         <v>500000</v>
       </c>
       <c r="H30" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I30" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J30" s="1" t="n"/>
       <c r="K30" s="1" t="n"/>
@@ -10304,10 +10304,10 @@
         <v>500000</v>
       </c>
       <c r="C31" s="20" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D31" s="20" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="21" t="n"/>
@@ -10358,10 +10358,10 @@
         <v>500000</v>
       </c>
       <c r="C32" s="20" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D32" s="20" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="21" t="n"/>
@@ -10412,10 +10412,10 @@
         <v>1000000</v>
       </c>
       <c r="C33" s="20" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D33" s="20" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="21" t="n"/>
@@ -10512,10 +10512,10 @@
       </c>
       <c r="B35" s="20" t="n"/>
       <c r="C35" s="20" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="D35" s="20" t="n">
-        <v>146000</v>
+        <v>145000</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="21" t="inlineStr">
@@ -10524,10 +10524,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I35" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J35" s="1" t="n"/>
       <c r="K35" s="1" t="n"/>
@@ -10629,7 +10629,7 @@
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E37" s="2" t="n"/>
@@ -10650,7 +10650,7 @@
       </c>
       <c r="I37" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J37" s="1" t="n"/>
@@ -10775,10 +10775,10 @@
         <v>250000</v>
       </c>
       <c r="C39" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D39" s="21" t="n">
-        <v>11500</v>
+        <v>11250</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="21" t="n">
@@ -10788,10 +10788,10 @@
         <v>1000000</v>
       </c>
       <c r="H39" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I39" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J39" s="1" t="n"/>
       <c r="K39" s="1" t="n"/>
@@ -10837,10 +10837,10 @@
         <v>250000</v>
       </c>
       <c r="C40" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D40" s="21" t="n">
-        <v>11500</v>
+        <v>11250</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="21" t="n">
@@ -10850,10 +10850,10 @@
         <v>2000000</v>
       </c>
       <c r="H40" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I40" s="21" t="n">
-        <v>99000</v>
+        <v>98750</v>
       </c>
       <c r="J40" s="1" t="n"/>
       <c r="K40" s="1" t="n"/>
@@ -11036,10 +11036,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D44" s="21" t="n">
-        <v>23000</v>
+        <v>22500</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="21" t="inlineStr">
@@ -11048,10 +11048,10 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="I44" s="21" t="n">
-        <v>148000</v>
+        <v>147500</v>
       </c>
       <c r="J44" s="1" t="n"/>
       <c r="K44" s="1" t="n"/>
@@ -11153,7 +11153,7 @@
       </c>
       <c r="D46" s="20" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E46" s="2" t="n"/>
@@ -11174,7 +11174,7 @@
       </c>
       <c r="I46" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J46" s="1" t="n"/>
@@ -11299,10 +11299,10 @@
         <v>500000</v>
       </c>
       <c r="C48" s="20" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D48" s="20" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="21" t="n">
@@ -11312,10 +11312,10 @@
         <v>500000</v>
       </c>
       <c r="H48" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I48" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J48" s="1" t="n"/>
       <c r="K48" s="1" t="n"/>
@@ -11366,10 +11366,10 @@
         <v>500000</v>
       </c>
       <c r="H49" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I49" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J49" s="1" t="n"/>
       <c r="K49" s="1" t="n"/>
@@ -11553,10 +11553,10 @@
       </c>
       <c r="B53" s="20" t="n"/>
       <c r="C53" s="20" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D53" s="20" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="21" t="inlineStr">
@@ -11565,10 +11565,10 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="I53" s="21" t="n">
-        <v>48000</v>
+        <v>47500</v>
       </c>
       <c r="J53" s="1" t="n"/>
       <c r="K53" s="1" t="n"/>
@@ -11670,7 +11670,7 @@
       </c>
       <c r="D55" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E55" s="2" t="n"/>
@@ -11691,7 +11691,7 @@
       </c>
       <c r="I55" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J55" s="1" t="n"/>
@@ -11820,10 +11820,10 @@
         <v>1000000</v>
       </c>
       <c r="C57" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D57" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="21" t="n">
@@ -11833,10 +11833,10 @@
         <v>1000000</v>
       </c>
       <c r="H57" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I57" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J57" s="1" t="n"/>
       <c r="K57" s="1" t="n"/>
@@ -11882,10 +11882,10 @@
         <v>1000000</v>
       </c>
       <c r="C58" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D58" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="21" t="n">
@@ -11895,10 +11895,10 @@
         <v>500000</v>
       </c>
       <c r="H58" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I58" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J58" s="1" t="n"/>
       <c r="K58" s="1" t="n"/>
@@ -12081,10 +12081,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D62" s="21" t="n">
-        <v>98000</v>
+        <v>97500</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="21" t="inlineStr">
@@ -12093,10 +12093,10 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="I62" s="21" t="n">
-        <v>73000</v>
+        <v>72500</v>
       </c>
       <c r="J62" s="1" t="n"/>
       <c r="K62" s="1" t="n"/>
@@ -12198,7 +12198,7 @@
       </c>
       <c r="D64" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E64" s="2" t="n"/>
@@ -12219,7 +12219,7 @@
       </c>
       <c r="I64" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J64" s="1" t="n"/>
@@ -12344,10 +12344,10 @@
         <v>500000</v>
       </c>
       <c r="C66" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D66" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="21" t="n">
@@ -12357,10 +12357,10 @@
         <v>500000</v>
       </c>
       <c r="H66" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I66" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J66" s="1" t="n"/>
       <c r="K66" s="1" t="n"/>
@@ -12396,10 +12396,10 @@
         <v>2000000</v>
       </c>
       <c r="C67" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D67" s="21" t="n">
-        <v>99000</v>
+        <v>98750</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="21" t="n">
@@ -12409,10 +12409,10 @@
         <v>500000</v>
       </c>
       <c r="H67" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I67" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J67" s="1" t="n"/>
       <c r="K67" s="1" t="n"/>
@@ -12528,10 +12528,10 @@
       </c>
       <c r="B71" s="16" t="n"/>
       <c r="C71" s="13" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D71" s="21" t="n">
-        <v>123000</v>
+        <v>122500</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="21" t="inlineStr">
@@ -12540,10 +12540,10 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="I71" s="21" t="n">
-        <v>48000</v>
+        <v>47500</v>
       </c>
       <c r="J71" s="1" t="n"/>
       <c r="K71" s="1" t="n"/>
@@ -12616,7 +12616,7 @@
       </c>
       <c r="D73" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E73" s="2" t="n"/>
@@ -12637,7 +12637,7 @@
       </c>
       <c r="I73" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J73" s="1" t="n"/>
@@ -12726,10 +12726,10 @@
         <v>1000000</v>
       </c>
       <c r="C75" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D75" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="21" t="n">
@@ -12739,10 +12739,10 @@
         <v>1000000</v>
       </c>
       <c r="H75" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I75" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J75" s="1" t="n"/>
       <c r="K75" s="1" t="n"/>
@@ -12770,10 +12770,10 @@
         <v>1000000</v>
       </c>
       <c r="C76" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D76" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="21" t="n">
@@ -12783,10 +12783,10 @@
         <v>1000000</v>
       </c>
       <c r="H76" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I76" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J76" s="1" t="n"/>
       <c r="K76" s="1" t="n"/>
@@ -12814,10 +12814,10 @@
         <v>1000000</v>
       </c>
       <c r="C77" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D77" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="21" t="n">
@@ -12827,10 +12827,10 @@
         <v>1000000</v>
       </c>
       <c r="H77" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I77" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J77" s="1" t="n"/>
       <c r="K77" s="1" t="n"/>
@@ -12858,10 +12858,10 @@
         <v>1000000</v>
       </c>
       <c r="C78" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D78" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="21" t="n">
@@ -12871,10 +12871,10 @@
         <v>1000000</v>
       </c>
       <c r="H78" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I78" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J78" s="1" t="n"/>
       <c r="K78" s="1" t="n"/>
@@ -12902,10 +12902,10 @@
         <v>1000000</v>
       </c>
       <c r="C79" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D79" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="21" t="n">
@@ -12915,10 +12915,10 @@
         <v>500000</v>
       </c>
       <c r="H79" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I79" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J79" s="1" t="n"/>
       <c r="K79" s="1" t="n"/>
@@ -12946,10 +12946,10 @@
         <v>250000</v>
       </c>
       <c r="C80" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D80" s="21" t="n">
-        <v>11500</v>
+        <v>11250</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="21" t="n">
@@ -12959,10 +12959,10 @@
         <v>500000</v>
       </c>
       <c r="H80" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I80" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J80" s="1" t="n"/>
       <c r="K80" s="1" t="n"/>
@@ -12990,10 +12990,10 @@
         <v>500000</v>
       </c>
       <c r="C81" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D81" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="21" t="n">
@@ -13003,10 +13003,10 @@
         <v>500000</v>
       </c>
       <c r="H81" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I81" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J81" s="1" t="n"/>
       <c r="K81" s="1" t="n"/>
@@ -13034,10 +13034,10 @@
         <v>250000</v>
       </c>
       <c r="C82" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D82" s="21" t="n">
-        <v>11500</v>
+        <v>11250</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="21" t="n">
@@ -13047,10 +13047,10 @@
         <v>1000000</v>
       </c>
       <c r="H82" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I82" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J82" s="1" t="n"/>
       <c r="K82" s="1" t="n"/>
@@ -13078,10 +13078,10 @@
         <v>2000000</v>
       </c>
       <c r="C83" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D83" s="21" t="n">
-        <v>99000</v>
+        <v>98750</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="21" t="n">
@@ -13091,10 +13091,10 @@
         <v>1000000</v>
       </c>
       <c r="H83" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I83" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J83" s="1" t="n"/>
       <c r="K83" s="1" t="n"/>
@@ -13122,10 +13122,10 @@
         <v>500000</v>
       </c>
       <c r="C84" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D84" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="21" t="n">
@@ -13135,10 +13135,10 @@
         <v>1000000</v>
       </c>
       <c r="H84" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I84" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J84" s="1" t="n"/>
       <c r="K84" s="1" t="n"/>
@@ -13166,10 +13166,10 @@
       </c>
       <c r="B85" s="21" t="n"/>
       <c r="C85" s="21" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="D85" s="21" t="n">
-        <v>415000</v>
+        <v>412500</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="21" t="inlineStr">
@@ -13178,10 +13178,10 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="I85" s="21" t="n">
-        <v>415000</v>
+        <v>412500</v>
       </c>
       <c r="J85" s="1" t="n"/>
       <c r="K85" s="1" t="n"/>
@@ -13247,7 +13247,7 @@
       </c>
       <c r="D87" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E87" s="2" t="n"/>
@@ -13268,7 +13268,7 @@
       </c>
       <c r="I87" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J87" s="1" t="n"/>
@@ -13357,10 +13357,10 @@
         <v>1000000</v>
       </c>
       <c r="C89" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D89" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="21" t="n">
@@ -13370,10 +13370,10 @@
         <v>500000</v>
       </c>
       <c r="H89" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I89" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J89" s="1" t="n"/>
       <c r="K89" s="1" t="n"/>
@@ -13401,10 +13401,10 @@
         <v>1000000</v>
       </c>
       <c r="C90" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D90" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="21" t="n"/>
@@ -13437,10 +13437,10 @@
         <v>2000000</v>
       </c>
       <c r="C91" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D91" s="21" t="n">
-        <v>99000</v>
+        <v>98750</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="21" t="n"/>
@@ -13473,10 +13473,10 @@
         <v>2000000</v>
       </c>
       <c r="C92" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D92" s="21" t="n">
-        <v>99000</v>
+        <v>98750</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="21" t="n"/>
@@ -13537,10 +13537,10 @@
       </c>
       <c r="B94" s="21" t="n"/>
       <c r="C94" s="21" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="D94" s="21" t="n">
-        <v>296000</v>
+        <v>295000</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="21" t="inlineStr">
@@ -13549,10 +13549,10 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I94" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J94" s="1" t="n"/>
       <c r="K94" s="1" t="n"/>
@@ -13618,7 +13618,7 @@
       </c>
       <c r="D96" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E96" s="2" t="n"/>
@@ -13639,7 +13639,7 @@
       </c>
       <c r="I96" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J96" s="1" t="n"/>
@@ -13728,10 +13728,10 @@
         <v>500000</v>
       </c>
       <c r="C98" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D98" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="21" t="n">
@@ -13741,10 +13741,10 @@
         <v>1000000</v>
       </c>
       <c r="H98" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I98" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J98" s="1" t="n"/>
       <c r="K98" s="1" t="n"/>
@@ -13772,10 +13772,10 @@
         <v>500000</v>
       </c>
       <c r="C99" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D99" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="21" t="n">
@@ -13785,10 +13785,10 @@
         <v>1000000</v>
       </c>
       <c r="H99" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I99" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J99" s="1" t="n"/>
       <c r="K99" s="1" t="n"/>
@@ -13821,10 +13821,10 @@
         <v>1000000</v>
       </c>
       <c r="H100" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I100" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J100" s="1" t="n"/>
       <c r="K100" s="1" t="n"/>
@@ -13908,10 +13908,10 @@
       </c>
       <c r="B103" s="21" t="n"/>
       <c r="C103" s="21" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D103" s="21" t="n">
-        <v>48000</v>
+        <v>47500</v>
       </c>
       <c r="E103" s="2" t="n"/>
       <c r="F103" s="21" t="inlineStr">
@@ -13920,10 +13920,10 @@
         </is>
       </c>
       <c r="H103" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="I103" s="21" t="n">
-        <v>147000</v>
+        <v>146250</v>
       </c>
       <c r="J103" s="1" t="n"/>
       <c r="K103" s="1" t="n"/>
@@ -13989,7 +13989,7 @@
       </c>
       <c r="D105" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E105" s="2" t="n"/>
@@ -14010,7 +14010,7 @@
       </c>
       <c r="I105" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J105" s="1" t="n"/>
@@ -14099,10 +14099,10 @@
         <v>500000</v>
       </c>
       <c r="C107" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D107" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E107" s="2" t="n"/>
       <c r="F107" s="21" t="n">
@@ -14112,10 +14112,10 @@
         <v>500000</v>
       </c>
       <c r="H107" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I107" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J107" s="1" t="n"/>
       <c r="K107" s="1" t="n"/>
@@ -14148,10 +14148,10 @@
         <v>1000000</v>
       </c>
       <c r="H108" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I108" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J108" s="1" t="n"/>
       <c r="K108" s="1" t="n"/>
@@ -14184,10 +14184,10 @@
         <v>2000000</v>
       </c>
       <c r="H109" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I109" s="21" t="n">
-        <v>99000</v>
+        <v>98750</v>
       </c>
       <c r="J109" s="1" t="n"/>
       <c r="K109" s="1" t="n"/>
@@ -14271,10 +14271,10 @@
       </c>
       <c r="B112" s="21" t="n"/>
       <c r="C112" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D112" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E112" s="2" t="n"/>
       <c r="F112" s="21" t="inlineStr">
@@ -14283,10 +14283,10 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="I112" s="21" t="n">
-        <v>172000</v>
+        <v>171250</v>
       </c>
       <c r="J112" s="1" t="n"/>
       <c r="K112" s="1" t="n"/>
@@ -14352,7 +14352,7 @@
       </c>
       <c r="D114" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E114" s="2" t="n"/>
@@ -14373,7 +14373,7 @@
       </c>
       <c r="I114" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J114" s="1" t="n"/>
@@ -14462,10 +14462,10 @@
         <v>500000</v>
       </c>
       <c r="C116" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D116" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E116" s="2" t="n"/>
       <c r="F116" s="21" t="n">
@@ -14475,10 +14475,10 @@
         <v>1000000</v>
       </c>
       <c r="H116" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I116" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J116" s="1" t="n"/>
       <c r="K116" s="1" t="n"/>
@@ -14506,10 +14506,10 @@
         <v>1000000</v>
       </c>
       <c r="C117" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D117" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E117" s="2" t="n"/>
       <c r="F117" s="21" t="n">
@@ -14519,10 +14519,10 @@
         <v>2000000</v>
       </c>
       <c r="H117" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I117" s="21" t="n">
-        <v>99000</v>
+        <v>98750</v>
       </c>
       <c r="J117" s="1" t="n"/>
       <c r="K117" s="1" t="n"/>
@@ -14550,10 +14550,10 @@
         <v>500000</v>
       </c>
       <c r="C118" s="21" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="D118" s="21" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="E118" s="2" t="n"/>
       <c r="F118" s="21" t="n"/>
@@ -14586,10 +14586,10 @@
         <v>500000</v>
       </c>
       <c r="C119" s="21" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="D119" s="21" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="E119" s="2" t="n"/>
       <c r="F119" s="21" t="n"/>
@@ -14650,10 +14650,10 @@
       </c>
       <c r="B121" s="21" t="n"/>
       <c r="C121" s="21" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="D121" s="21" t="n">
-        <v>122000</v>
+        <v>120000</v>
       </c>
       <c r="E121" s="2" t="n"/>
       <c r="F121" s="21" t="inlineStr">
@@ -14662,10 +14662,10 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="I121" s="21" t="n">
-        <v>148000</v>
+        <v>147500</v>
       </c>
       <c r="J121" s="1" t="n"/>
       <c r="K121" s="1" t="n"/>
@@ -14731,7 +14731,7 @@
       </c>
       <c r="D123" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E123" s="2" t="n"/>
@@ -14752,7 +14752,7 @@
       </c>
       <c r="I123" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J123" s="1" t="n"/>
@@ -14845,10 +14845,10 @@
         <v>500000</v>
       </c>
       <c r="C125" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D125" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E125" s="2" t="n"/>
       <c r="F125" s="21" t="n">
@@ -14858,10 +14858,10 @@
         <v>1000000</v>
       </c>
       <c r="H125" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I125" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J125" s="1" t="n"/>
       <c r="K125" s="1" t="n"/>
@@ -14889,10 +14889,10 @@
         <v>2000000</v>
       </c>
       <c r="C126" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D126" s="21" t="n">
-        <v>99000</v>
+        <v>98750</v>
       </c>
       <c r="E126" s="2" t="n"/>
       <c r="F126" s="21" t="n">
@@ -14902,10 +14902,10 @@
         <v>500000</v>
       </c>
       <c r="H126" s="21" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="I126" s="21" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="J126" s="1" t="n"/>
       <c r="K126" s="1" t="n"/>
@@ -14938,10 +14938,10 @@
         <v>500000</v>
       </c>
       <c r="H127" s="21" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="I127" s="21" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="J127" s="1" t="n"/>
       <c r="K127" s="1" t="n"/>
@@ -14974,10 +14974,10 @@
         <v>1000000</v>
       </c>
       <c r="H128" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I128" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J128" s="1" t="n"/>
       <c r="K128" s="1" t="n"/>
@@ -15010,10 +15010,10 @@
         <v>500000</v>
       </c>
       <c r="H129" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I129" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J129" s="1" t="n"/>
       <c r="K129" s="1" t="n"/>
@@ -15041,10 +15041,10 @@
       </c>
       <c r="B130" s="21" t="n"/>
       <c r="C130" s="21" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D130" s="21" t="n">
-        <v>123000</v>
+        <v>122500</v>
       </c>
       <c r="E130" s="2" t="n"/>
       <c r="F130" s="21" t="inlineStr">
@@ -15053,10 +15053,10 @@
         </is>
       </c>
       <c r="H130" t="n">
-        <v>4000</v>
+        <v>6250</v>
       </c>
       <c r="I130" s="21" t="n">
-        <v>171000</v>
+        <v>168750</v>
       </c>
       <c r="J130" s="1" t="n"/>
       <c r="K130" s="1" t="n"/>
@@ -15122,7 +15122,7 @@
       </c>
       <c r="D132" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E132" s="2" t="n"/>
@@ -15143,7 +15143,7 @@
       </c>
       <c r="I132" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J132" s="1" t="n"/>
@@ -15232,10 +15232,10 @@
         <v>500000</v>
       </c>
       <c r="C134" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D134" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E134" s="2" t="n"/>
       <c r="F134" s="21" t="n">
@@ -15245,10 +15245,10 @@
         <v>500000</v>
       </c>
       <c r="H134" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I134" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J134" s="1" t="n"/>
       <c r="K134" s="1" t="n"/>
@@ -15276,10 +15276,10 @@
         <v>1000000</v>
       </c>
       <c r="C135" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D135" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E135" s="2" t="n"/>
       <c r="F135" s="21" t="n"/>
@@ -15396,10 +15396,10 @@
       </c>
       <c r="B139" s="21" t="n"/>
       <c r="C139" s="21" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D139" s="21" t="n">
-        <v>73000</v>
+        <v>72500</v>
       </c>
       <c r="E139" s="2" t="n"/>
       <c r="F139" s="21" t="inlineStr">
@@ -15408,10 +15408,10 @@
         </is>
       </c>
       <c r="H139" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I139" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J139" s="1" t="n"/>
       <c r="K139" s="1" t="n"/>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="D141" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E141" s="2" t="n"/>
@@ -15498,7 +15498,7 @@
       </c>
       <c r="I141" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J141" s="1" t="n"/>
@@ -15587,10 +15587,10 @@
         <v>500000</v>
       </c>
       <c r="C143" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D143" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E143" s="2" t="n"/>
       <c r="F143" s="21" t="n">
@@ -15600,10 +15600,10 @@
         <v>1000000</v>
       </c>
       <c r="H143" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I143" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J143" s="1" t="n"/>
       <c r="K143" s="1" t="n"/>
@@ -15631,10 +15631,10 @@
         <v>500000</v>
       </c>
       <c r="C144" s="21" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="D144" s="21" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="E144" s="2" t="n"/>
       <c r="F144" s="21" t="n">
@@ -15644,10 +15644,10 @@
         <v>1000000</v>
       </c>
       <c r="H144" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I144" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J144" s="1" t="n"/>
       <c r="K144" s="1" t="n"/>
@@ -15675,10 +15675,10 @@
         <v>500000</v>
       </c>
       <c r="C145" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D145" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E145" s="2" t="n"/>
       <c r="F145" s="21" t="n"/>
@@ -15711,10 +15711,10 @@
         <v>1000000</v>
       </c>
       <c r="C146" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D146" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E146" s="2" t="n"/>
       <c r="F146" s="21" t="n"/>
@@ -15775,10 +15775,10 @@
       </c>
       <c r="B148" s="21" t="n"/>
       <c r="C148" s="21" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="D148" s="21" t="n">
-        <v>121500</v>
+        <v>120000</v>
       </c>
       <c r="E148" s="2" t="n"/>
       <c r="F148" s="21" t="inlineStr">
@@ -15787,10 +15787,10 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="I148" s="21" t="n">
-        <v>98000</v>
+        <v>97500</v>
       </c>
       <c r="J148" s="1" t="n"/>
       <c r="K148" s="1" t="n"/>
@@ -15856,7 +15856,7 @@
       </c>
       <c r="D150" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E150" s="2" t="n"/>
@@ -15877,7 +15877,7 @@
       </c>
       <c r="I150" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J150" s="21" t="n"/>
@@ -15966,10 +15966,10 @@
         <v>500000</v>
       </c>
       <c r="C152" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D152" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E152" s="21" t="n"/>
       <c r="F152" s="21" t="n">
@@ -15979,10 +15979,10 @@
         <v>500000</v>
       </c>
       <c r="H152" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I152" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J152" s="1" t="n"/>
       <c r="K152" s="21" t="n"/>
@@ -16015,10 +16015,10 @@
         <v>500000</v>
       </c>
       <c r="H153" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I153" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J153" s="1" t="n"/>
       <c r="K153" s="3" t="n"/>
@@ -16051,10 +16051,10 @@
         <v>1000000</v>
       </c>
       <c r="H154" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I154" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J154" s="1" t="n"/>
       <c r="K154" s="1" t="n"/>
@@ -16138,10 +16138,10 @@
       </c>
       <c r="B157" s="21" t="n"/>
       <c r="C157" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D157" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E157" s="2" t="n"/>
       <c r="F157" s="21" t="inlineStr">
@@ -16150,10 +16150,10 @@
         </is>
       </c>
       <c r="H157" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="I157" s="21" t="n">
-        <v>97000</v>
+        <v>96250</v>
       </c>
       <c r="J157" s="1" t="n"/>
       <c r="K157" s="1" t="n"/>
@@ -16219,7 +16219,7 @@
       </c>
       <c r="D159" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E159" s="2" t="n"/>
@@ -16240,7 +16240,7 @@
       </c>
       <c r="I159" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J159" s="1" t="n"/>
@@ -16329,10 +16329,10 @@
         <v>1000000</v>
       </c>
       <c r="C161" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D161" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E161" s="2" t="n"/>
       <c r="F161" s="21" t="n">
@@ -16342,10 +16342,10 @@
         <v>1000000</v>
       </c>
       <c r="H161" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I161" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J161" s="1" t="n"/>
       <c r="K161" s="1" t="n"/>
@@ -16485,10 +16485,10 @@
       </c>
       <c r="B166" s="21" t="n"/>
       <c r="C166" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D166" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E166" s="2" t="n"/>
       <c r="F166" s="21" t="inlineStr">
@@ -16497,10 +16497,10 @@
         </is>
       </c>
       <c r="H166" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I166" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J166" s="1" t="n"/>
       <c r="K166" s="1" t="n"/>
@@ -16566,7 +16566,7 @@
       </c>
       <c r="D168" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E168" s="2" t="n"/>
@@ -16587,7 +16587,7 @@
       </c>
       <c r="I168" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J168" s="1" t="n"/>
@@ -16676,10 +16676,10 @@
         <v>1000000</v>
       </c>
       <c r="C170" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D170" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E170" s="2" t="inlineStr">
         <is>
@@ -16693,10 +16693,10 @@
         <v>1000000</v>
       </c>
       <c r="H170" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I170" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J170" s="1" t="n"/>
       <c r="K170" s="1" t="n"/>
@@ -16724,10 +16724,10 @@
         <v>1000000</v>
       </c>
       <c r="C171" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D171" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E171" s="2" t="n"/>
       <c r="F171" s="21" t="n">
@@ -16737,10 +16737,10 @@
         <v>500000</v>
       </c>
       <c r="H171" s="21" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="I171" s="21" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="J171" s="1" t="n"/>
       <c r="K171" s="1" t="n"/>
@@ -16768,10 +16768,10 @@
         <v>1000000</v>
       </c>
       <c r="C172" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D172" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E172" s="2" t="n"/>
       <c r="F172" s="21" t="n"/>
@@ -16860,10 +16860,10 @@
       </c>
       <c r="B175" s="21" t="n"/>
       <c r="C175" s="21" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="D175" s="21" t="n">
-        <v>147000</v>
+        <v>146250</v>
       </c>
       <c r="E175" s="2" t="n"/>
       <c r="F175" s="21" t="inlineStr">
@@ -16872,10 +16872,10 @@
         </is>
       </c>
       <c r="H175" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="I175" s="21" t="n">
-        <v>73500</v>
+        <v>72500</v>
       </c>
       <c r="J175" s="1" t="n"/>
       <c r="K175" s="1" t="n"/>
@@ -16941,7 +16941,7 @@
       </c>
       <c r="D177" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E177" s="2" t="n"/>
@@ -16962,7 +16962,7 @@
       </c>
       <c r="I177" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J177" s="1" t="n"/>
@@ -17051,10 +17051,10 @@
         <v>2000000</v>
       </c>
       <c r="C179" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D179" s="21" t="n">
-        <v>99000</v>
+        <v>98750</v>
       </c>
       <c r="E179" s="2" t="n"/>
       <c r="F179" s="21" t="n">
@@ -17064,10 +17064,10 @@
         <v>1000000</v>
       </c>
       <c r="H179" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I179" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J179" s="1" t="n"/>
       <c r="K179" s="1" t="n"/>
@@ -17095,10 +17095,10 @@
         <v>500000</v>
       </c>
       <c r="C180" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D180" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E180" s="2" t="n"/>
       <c r="F180" s="21" t="n"/>
@@ -17215,10 +17215,10 @@
       </c>
       <c r="B184" s="21" t="n"/>
       <c r="C184" s="21" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D184" s="21" t="n">
-        <v>123000</v>
+        <v>122500</v>
       </c>
       <c r="E184" s="2" t="n"/>
       <c r="F184" s="21" t="inlineStr">
@@ -17227,10 +17227,10 @@
         </is>
       </c>
       <c r="H184" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I184" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J184" s="1" t="n"/>
       <c r="K184" s="1" t="n"/>
@@ -17296,7 +17296,7 @@
       </c>
       <c r="D186" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E186" s="2" t="n"/>
@@ -17317,7 +17317,7 @@
       </c>
       <c r="I186" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J186" s="1" t="n"/>
@@ -17406,10 +17406,10 @@
         <v>1000000</v>
       </c>
       <c r="C188" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D188" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E188" s="2" t="n"/>
       <c r="F188" s="21" t="n">
@@ -17419,10 +17419,10 @@
         <v>500000</v>
       </c>
       <c r="H188" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I188" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J188" s="1" t="n"/>
       <c r="K188" s="1" t="n"/>
@@ -17450,10 +17450,10 @@
         <v>1000000</v>
       </c>
       <c r="C189" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D189" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E189" s="2" t="n"/>
       <c r="F189" s="21" t="n"/>
@@ -17570,10 +17570,10 @@
       </c>
       <c r="B193" s="21" t="n"/>
       <c r="C193" s="21" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D193" s="21" t="n">
-        <v>98000</v>
+        <v>97500</v>
       </c>
       <c r="E193" s="2" t="n"/>
       <c r="F193" s="21" t="inlineStr">
@@ -17582,10 +17582,10 @@
         </is>
       </c>
       <c r="H193" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I193" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J193" s="1" t="n"/>
       <c r="K193" s="1" t="n"/>
@@ -17651,7 +17651,7 @@
       </c>
       <c r="D195" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E195" s="2" t="n"/>
@@ -17672,7 +17672,7 @@
       </c>
       <c r="I195" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J195" s="1" t="n"/>
@@ -17761,10 +17761,10 @@
         <v>1000000</v>
       </c>
       <c r="C197" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D197" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E197" s="2" t="n"/>
       <c r="F197" s="21" t="n">
@@ -17774,10 +17774,10 @@
         <v>1000000</v>
       </c>
       <c r="H197" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I197" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J197" s="1" t="n"/>
       <c r="K197" s="1" t="n"/>
@@ -17805,10 +17805,10 @@
         <v>1000000</v>
       </c>
       <c r="C198" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D198" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E198" s="2" t="n"/>
       <c r="F198" s="21" t="n"/>
@@ -17925,10 +17925,10 @@
       </c>
       <c r="B202" s="21" t="n"/>
       <c r="C202" s="21" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D202" s="21" t="n">
-        <v>98000</v>
+        <v>97500</v>
       </c>
       <c r="E202" s="2" t="n"/>
       <c r="F202" s="21" t="inlineStr">
@@ -17937,10 +17937,10 @@
         </is>
       </c>
       <c r="H202" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I202" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J202" s="1" t="n"/>
       <c r="K202" s="1" t="n"/>
@@ -18006,7 +18006,7 @@
       </c>
       <c r="D204" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="F204" s="14" t="inlineStr">
@@ -18026,7 +18026,7 @@
       </c>
       <c r="I204" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J204" s="1" t="n"/>
@@ -18114,10 +18114,10 @@
         <v>1000000</v>
       </c>
       <c r="C206" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D206" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="F206" s="21" t="n">
         <v>5.1</v>
@@ -18126,10 +18126,10 @@
         <v>1000000</v>
       </c>
       <c r="H206" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I206" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J206" s="1" t="n"/>
       <c r="K206" s="1" t="n"/>
@@ -18157,10 +18157,10 @@
         <v>1000000</v>
       </c>
       <c r="C207" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D207" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="F207" s="21" t="n">
         <v>10</v>
@@ -18169,10 +18169,10 @@
         <v>1000000</v>
       </c>
       <c r="H207" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I207" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J207" s="1" t="n"/>
       <c r="K207" s="1" t="n"/>
@@ -18284,10 +18284,10 @@
       </c>
       <c r="B211" s="21" t="n"/>
       <c r="C211" s="21" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D211" s="21" t="n">
-        <v>98000</v>
+        <v>97500</v>
       </c>
       <c r="E211" s="2" t="n"/>
       <c r="F211" s="21" t="inlineStr">
@@ -18296,10 +18296,10 @@
         </is>
       </c>
       <c r="H211" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="I211" s="21" t="n">
-        <v>98000</v>
+        <v>97500</v>
       </c>
       <c r="J211" s="1" t="n"/>
       <c r="K211" s="1" t="n"/>
@@ -18370,7 +18370,7 @@
       </c>
       <c r="I213" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J213" s="1" t="n"/>
@@ -18448,10 +18448,10 @@
         <v>500000</v>
       </c>
       <c r="H215" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I215" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J215" s="1" t="n"/>
       <c r="K215" s="1" t="n"/>
@@ -18484,10 +18484,10 @@
         <v>500000</v>
       </c>
       <c r="H216" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I216" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J216" s="1" t="n"/>
       <c r="K216" s="1" t="n"/>
@@ -18603,10 +18603,10 @@
         </is>
       </c>
       <c r="H220" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="I220" s="21" t="n">
-        <v>48000</v>
+        <v>47500</v>
       </c>
       <c r="J220" s="1" t="n"/>
       <c r="K220" s="1" t="n"/>
@@ -18672,7 +18672,7 @@
       </c>
       <c r="D222" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E222" s="2" t="n"/>
@@ -18693,7 +18693,7 @@
       </c>
       <c r="I222" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J222" s="1" t="n"/>
@@ -18782,10 +18782,10 @@
         <v>500000</v>
       </c>
       <c r="C224" s="21" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="D224" s="21" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="E224" s="2" t="n"/>
       <c r="F224" s="21" t="n">
@@ -18795,10 +18795,10 @@
         <v>500000</v>
       </c>
       <c r="H224" s="21" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="I224" s="21" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="J224" s="1" t="n"/>
       <c r="K224" s="1" t="n"/>
@@ -18938,10 +18938,10 @@
       </c>
       <c r="B229" s="21" t="n"/>
       <c r="C229" s="21" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="D229" s="21" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="E229" s="2" t="n"/>
       <c r="F229" s="21" t="inlineStr">
@@ -18950,10 +18950,10 @@
         </is>
       </c>
       <c r="H229" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="I229" s="21" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="J229" s="1" t="n"/>
       <c r="K229" s="1" t="n"/>
@@ -19019,7 +19019,7 @@
       </c>
       <c r="D231" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E231" s="2" t="n"/>
@@ -19040,7 +19040,7 @@
       </c>
       <c r="I231" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J231" s="1" t="n"/>
@@ -19129,10 +19129,10 @@
         <v>500000</v>
       </c>
       <c r="C233" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D233" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E233" s="2" t="n"/>
       <c r="F233" s="21" t="n">
@@ -19142,10 +19142,10 @@
         <v>2000000</v>
       </c>
       <c r="H233" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I233" s="21" t="n">
-        <v>99000</v>
+        <v>98750</v>
       </c>
       <c r="J233" s="1" t="n"/>
       <c r="K233" s="1" t="n"/>
@@ -19285,10 +19285,10 @@
       </c>
       <c r="B238" s="21" t="n"/>
       <c r="C238" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D238" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E238" s="2" t="n"/>
       <c r="F238" s="21" t="inlineStr">
@@ -19297,10 +19297,10 @@
         </is>
       </c>
       <c r="H238" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I238" s="21" t="n">
-        <v>99000</v>
+        <v>98750</v>
       </c>
       <c r="J238" s="1" t="n"/>
       <c r="K238" s="1" t="n"/>
@@ -19366,7 +19366,7 @@
       </c>
       <c r="D240" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E240" s="2" t="n"/>
@@ -19387,7 +19387,7 @@
       </c>
       <c r="I240" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J240" s="1" t="n"/>
@@ -19476,10 +19476,10 @@
         <v>500000</v>
       </c>
       <c r="C242" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D242" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E242" s="2" t="n"/>
       <c r="F242" s="21" t="n">
@@ -19489,10 +19489,10 @@
         <v>1000000</v>
       </c>
       <c r="H242" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I242" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J242" s="1" t="n"/>
       <c r="K242" s="1" t="n"/>
@@ -19520,10 +19520,10 @@
         <v>500000</v>
       </c>
       <c r="C243" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D243" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E243" s="2" t="n"/>
       <c r="F243" s="21" t="n">
@@ -19533,10 +19533,10 @@
         <v>2000000</v>
       </c>
       <c r="H243" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I243" s="21" t="n">
-        <v>99000</v>
+        <v>98750</v>
       </c>
       <c r="J243" s="1" t="n"/>
       <c r="K243" s="1" t="n"/>
@@ -19569,10 +19569,10 @@
         <v>500000</v>
       </c>
       <c r="H244" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I244" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J244" s="1" t="n"/>
       <c r="K244" s="1" t="n"/>
@@ -19605,10 +19605,10 @@
         <v>500000</v>
       </c>
       <c r="H245" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I245" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J245" s="1" t="n"/>
       <c r="K245" s="1" t="n"/>
@@ -19641,10 +19641,10 @@
         <v>1000000</v>
       </c>
       <c r="H246" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I246" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J246" s="1" t="n"/>
       <c r="K246" s="1" t="n"/>
@@ -19672,10 +19672,10 @@
       </c>
       <c r="B247" s="21" t="n"/>
       <c r="C247" s="21" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D247" s="21" t="n">
-        <v>48000</v>
+        <v>47500</v>
       </c>
       <c r="E247" s="2" t="n"/>
       <c r="F247" s="21" t="inlineStr">
@@ -19684,10 +19684,10 @@
         </is>
       </c>
       <c r="H247" t="n">
-        <v>5000</v>
+        <v>6250</v>
       </c>
       <c r="I247" s="21" t="n">
-        <v>245000</v>
+        <v>243750</v>
       </c>
       <c r="J247" s="1" t="n"/>
       <c r="K247" s="1" t="n"/>
@@ -19753,7 +19753,7 @@
       </c>
       <c r="D249" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E249" s="2" t="n"/>
@@ -19774,7 +19774,7 @@
       </c>
       <c r="I249" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J249" s="1" t="n"/>
@@ -19863,10 +19863,10 @@
         <v>1000000</v>
       </c>
       <c r="C251" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D251" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E251" s="2" t="n"/>
       <c r="F251" s="21" t="n">
@@ -19876,10 +19876,10 @@
         <v>500000</v>
       </c>
       <c r="H251" s="21" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="I251" s="21" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="J251" s="1" t="n"/>
       <c r="K251" s="1" t="n"/>
@@ -19907,10 +19907,10 @@
         <v>1000000</v>
       </c>
       <c r="C252" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D252" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E252" s="2" t="n"/>
       <c r="F252" s="21" t="n"/>
@@ -20027,10 +20027,10 @@
       </c>
       <c r="B256" s="21" t="n"/>
       <c r="C256" s="21" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D256" s="21" t="n">
-        <v>98000</v>
+        <v>97500</v>
       </c>
       <c r="E256" s="2" t="n"/>
       <c r="F256" s="21" t="inlineStr">
@@ -20039,10 +20039,10 @@
         </is>
       </c>
       <c r="H256" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="I256" s="21" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="J256" s="1" t="n"/>
       <c r="K256" s="1" t="n"/>
@@ -20108,7 +20108,7 @@
       </c>
       <c r="D258" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E258" s="2" t="n"/>
@@ -20129,7 +20129,7 @@
       </c>
       <c r="I258" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J258" s="1" t="n"/>
@@ -20218,10 +20218,10 @@
         <v>500000</v>
       </c>
       <c r="C260" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D260" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E260" s="2" t="n"/>
       <c r="F260" s="21" t="n">
@@ -20231,10 +20231,10 @@
         <v>500000</v>
       </c>
       <c r="H260" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I260" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J260" s="1" t="n"/>
       <c r="K260" s="1" t="n"/>
@@ -20262,10 +20262,10 @@
         <v>1000000</v>
       </c>
       <c r="C261" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D261" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E261" s="2" t="n"/>
       <c r="F261" s="21" t="n">
@@ -20275,10 +20275,10 @@
         <v>500000</v>
       </c>
       <c r="H261" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I261" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J261" s="1" t="n"/>
       <c r="K261" s="1" t="n"/>
@@ -20390,10 +20390,10 @@
       </c>
       <c r="B265" s="21" t="n"/>
       <c r="C265" s="21" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D265" s="21" t="n">
-        <v>73000</v>
+        <v>72500</v>
       </c>
       <c r="E265" s="2" t="n"/>
       <c r="F265" s="21" t="inlineStr">
@@ -20402,10 +20402,10 @@
         </is>
       </c>
       <c r="H265" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="I265" s="21" t="n">
-        <v>48000</v>
+        <v>47500</v>
       </c>
       <c r="J265" s="1" t="n"/>
       <c r="K265" s="1" t="n"/>
@@ -20471,7 +20471,7 @@
       </c>
       <c r="D267" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E267" s="2" t="n"/>
@@ -20492,7 +20492,7 @@
       </c>
       <c r="I267" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J267" s="1" t="n"/>
@@ -20581,10 +20581,10 @@
         <v>500000</v>
       </c>
       <c r="C269" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D269" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E269" s="2" t="n"/>
       <c r="F269" s="21" t="n">
@@ -20594,10 +20594,10 @@
         <v>500000</v>
       </c>
       <c r="H269" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I269" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J269" s="1" t="n"/>
       <c r="K269" s="1" t="n"/>
@@ -20737,10 +20737,10 @@
       </c>
       <c r="B274" s="21" t="n"/>
       <c r="C274" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D274" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E274" s="2" t="n"/>
       <c r="F274" s="21" t="inlineStr">
@@ -20749,10 +20749,10 @@
         </is>
       </c>
       <c r="H274" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I274" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J274" s="1" t="n"/>
       <c r="K274" s="1" t="n"/>
@@ -20818,7 +20818,7 @@
       </c>
       <c r="D276" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E276" s="2" t="n"/>
@@ -20839,7 +20839,7 @@
       </c>
       <c r="I276" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J276" s="1" t="n"/>
@@ -20928,10 +20928,10 @@
         <v>1000000</v>
       </c>
       <c r="C278" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D278" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E278" s="2" t="n"/>
       <c r="F278" s="21" t="n">
@@ -20941,10 +20941,10 @@
         <v>1000000</v>
       </c>
       <c r="H278" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I278" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J278" s="1" t="n"/>
       <c r="K278" s="1" t="n"/>
@@ -20972,10 +20972,10 @@
         <v>1000000</v>
       </c>
       <c r="C279" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D279" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E279" s="2" t="n"/>
       <c r="F279" s="21" t="n">
@@ -20985,10 +20985,10 @@
         <v>500000</v>
       </c>
       <c r="H279" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I279" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J279" s="1" t="n"/>
       <c r="K279" s="1" t="n"/>
@@ -21021,10 +21021,10 @@
         <v>500000</v>
       </c>
       <c r="H280" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I280" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J280" s="1" t="n"/>
       <c r="K280" s="1" t="n"/>
@@ -21057,10 +21057,10 @@
         <v>500000</v>
       </c>
       <c r="H281" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I281" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J281" s="1" t="n"/>
       <c r="K281" s="1" t="n"/>
@@ -21093,10 +21093,10 @@
         <v>1000000</v>
       </c>
       <c r="H282" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I282" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J282" s="1" t="n"/>
       <c r="K282" s="1" t="n"/>
@@ -21129,10 +21129,10 @@
         <v>500000</v>
       </c>
       <c r="H283" s="21" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="I283" s="21" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="J283" s="1" t="n"/>
       <c r="K283" s="1" t="n"/>
@@ -21160,10 +21160,10 @@
       </c>
       <c r="B284" s="21" t="n"/>
       <c r="C284" s="21" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D284" s="21" t="n">
-        <v>98000</v>
+        <v>97500</v>
       </c>
       <c r="E284" s="2" t="n"/>
       <c r="F284" s="21" t="inlineStr">
@@ -21172,10 +21172,10 @@
         </is>
       </c>
       <c r="H284" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="I284" s="21" t="n">
-        <v>194500</v>
+        <v>192500</v>
       </c>
       <c r="J284" s="1" t="n"/>
       <c r="K284" s="1" t="n"/>
@@ -21241,7 +21241,7 @@
       </c>
       <c r="D286" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E286" s="2" t="n"/>
@@ -21262,7 +21262,7 @@
       </c>
       <c r="I286" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J286" s="1" t="n"/>
@@ -21351,10 +21351,10 @@
         <v>2000000</v>
       </c>
       <c r="C288" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D288" s="21" t="n">
-        <v>99000</v>
+        <v>98750</v>
       </c>
       <c r="E288" s="2" t="n"/>
       <c r="F288" s="21" t="n">
@@ -21364,10 +21364,10 @@
         <v>1000000</v>
       </c>
       <c r="H288" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I288" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J288" s="1" t="n"/>
       <c r="K288" s="1" t="n"/>
@@ -21395,10 +21395,10 @@
         <v>500000</v>
       </c>
       <c r="C289" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D289" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E289" s="2" t="n"/>
       <c r="F289" s="21" t="n">
@@ -21408,10 +21408,10 @@
         <v>500000</v>
       </c>
       <c r="H289" s="21" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="I289" s="21" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="J289" s="1" t="n"/>
       <c r="K289" s="1" t="n"/>
@@ -21444,10 +21444,10 @@
         <v>500000</v>
       </c>
       <c r="H290" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I290" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J290" s="1" t="n"/>
       <c r="K290" s="1" t="n"/>
@@ -21480,10 +21480,10 @@
         <v>500000</v>
       </c>
       <c r="H291" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I291" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J291" s="1" t="n"/>
       <c r="K291" s="1" t="n"/>
@@ -21539,10 +21539,10 @@
       </c>
       <c r="B293" s="14" t="n"/>
       <c r="C293" s="14" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D293" s="21" t="n">
-        <v>123000</v>
+        <v>122500</v>
       </c>
       <c r="E293" s="2" t="n"/>
       <c r="F293" s="21" t="inlineStr">
@@ -21551,10 +21551,10 @@
         </is>
       </c>
       <c r="H293" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="I293" s="21" t="n">
-        <v>121500</v>
+        <v>120000</v>
       </c>
       <c r="J293" s="1" t="n"/>
       <c r="K293" s="1" t="n"/>
@@ -21620,7 +21620,7 @@
       </c>
       <c r="D295" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E295" s="2" t="n"/>
@@ -21641,7 +21641,7 @@
       </c>
       <c r="I295" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J295" s="1" t="n"/>
@@ -21730,10 +21730,10 @@
         <v>2000000</v>
       </c>
       <c r="C297" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D297" s="21" t="n">
-        <v>99000</v>
+        <v>98750</v>
       </c>
       <c r="E297" s="2" t="n"/>
       <c r="F297" s="21" t="n">
@@ -21743,10 +21743,10 @@
         <v>2000000</v>
       </c>
       <c r="H297" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I297" s="21" t="n">
-        <v>99000</v>
+        <v>98750</v>
       </c>
       <c r="J297" s="1" t="n"/>
       <c r="K297" s="1" t="n"/>
@@ -21774,10 +21774,10 @@
         <v>500000</v>
       </c>
       <c r="C298" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D298" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E298" s="2" t="n"/>
       <c r="F298" s="21" t="n">
@@ -21787,10 +21787,10 @@
         <v>1000000</v>
       </c>
       <c r="H298" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I298" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J298" s="1" t="n"/>
       <c r="K298" s="1" t="n"/>
@@ -21818,10 +21818,10 @@
         <v>1000000</v>
       </c>
       <c r="C299" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D299" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E299" s="2" t="n"/>
       <c r="F299" s="21" t="n"/>
@@ -21910,10 +21910,10 @@
       </c>
       <c r="B302" s="21" t="n"/>
       <c r="C302" s="21" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="D302" s="21" t="n">
-        <v>172000</v>
+        <v>171250</v>
       </c>
       <c r="E302" s="2" t="n"/>
       <c r="F302" s="21" t="inlineStr">
@@ -21922,10 +21922,10 @@
         </is>
       </c>
       <c r="H302" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="I302" s="21" t="n">
-        <v>148000</v>
+        <v>147500</v>
       </c>
       <c r="J302" s="1" t="n"/>
       <c r="K302" s="1" t="n"/>
@@ -21991,7 +21991,7 @@
       </c>
       <c r="D304" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E304" s="2" t="n"/>
@@ -22012,7 +22012,7 @@
       </c>
       <c r="I304" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J304" s="1" t="n"/>
@@ -22101,10 +22101,10 @@
         <v>1000000</v>
       </c>
       <c r="C306" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D306" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E306" s="2" t="n"/>
       <c r="F306" s="21" t="n">
@@ -22114,10 +22114,10 @@
         <v>1000000</v>
       </c>
       <c r="H306" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I306" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J306" s="21">
         <f>VLOOKUP(G306&amp;"|"&amp;H306,$Q$3:$R$16,2,FALSE)</f>
@@ -22148,10 +22148,10 @@
         <v>1000000</v>
       </c>
       <c r="C307" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D307" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E307" s="2" t="n"/>
       <c r="F307" s="21" t="n"/>
@@ -22268,10 +22268,10 @@
       </c>
       <c r="B311" s="21" t="n"/>
       <c r="C311" s="21" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D311" s="21" t="n">
-        <v>98000</v>
+        <v>97500</v>
       </c>
       <c r="E311" s="2" t="n"/>
       <c r="F311" s="21" t="inlineStr">
@@ -22280,10 +22280,10 @@
         </is>
       </c>
       <c r="H311" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I311" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J311" s="1" t="n"/>
       <c r="K311" s="1" t="n"/>
@@ -22349,7 +22349,7 @@
       </c>
       <c r="D313" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E313" s="2" t="n"/>
@@ -22370,7 +22370,7 @@
       </c>
       <c r="I313" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J313" s="1" t="n"/>
@@ -22459,10 +22459,10 @@
         <v>500000</v>
       </c>
       <c r="C315" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D315" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E315" s="2" t="n"/>
       <c r="F315" s="21" t="n">
@@ -22472,10 +22472,10 @@
         <v>500000</v>
       </c>
       <c r="H315" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I315" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J315" s="1" t="n"/>
       <c r="K315" s="1" t="n"/>
@@ -22503,10 +22503,10 @@
         <v>500000</v>
       </c>
       <c r="C316" s="21" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="D316" s="21" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="E316" s="2" t="n"/>
       <c r="F316" s="21" t="n"/>
@@ -22623,10 +22623,10 @@
       </c>
       <c r="B320" s="21" t="n"/>
       <c r="C320" s="21" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="D320" s="21" t="n">
-        <v>48500</v>
+        <v>47500</v>
       </c>
       <c r="E320" s="2" t="n"/>
       <c r="F320" s="21" t="inlineStr">
@@ -22635,10 +22635,10 @@
         </is>
       </c>
       <c r="H320" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I320" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J320" s="1" t="n"/>
       <c r="K320" s="1" t="n"/>
@@ -22704,7 +22704,7 @@
       </c>
       <c r="D322" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E322" s="2" t="n"/>
@@ -22725,7 +22725,7 @@
       </c>
       <c r="I322" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J322" s="1" t="n"/>
@@ -22814,10 +22814,10 @@
         <v>500000</v>
       </c>
       <c r="C324" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D324" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E324" s="2" t="n"/>
       <c r="F324" s="21" t="n">
@@ -22827,10 +22827,10 @@
         <v>500000</v>
       </c>
       <c r="H324" s="21" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="I324" s="21" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="J324" s="1" t="n"/>
       <c r="K324" s="1" t="n"/>
@@ -22970,10 +22970,10 @@
       </c>
       <c r="B329" s="21" t="n"/>
       <c r="C329" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D329" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E329" s="2" t="n"/>
       <c r="F329" s="21" t="inlineStr">
@@ -22982,10 +22982,10 @@
         </is>
       </c>
       <c r="H329" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="I329" s="21" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="J329" s="1" t="n"/>
       <c r="K329" s="1" t="n"/>
@@ -23051,7 +23051,7 @@
       </c>
       <c r="D331" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E331" s="2" t="n"/>
@@ -23072,7 +23072,7 @@
       </c>
       <c r="I331" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J331" s="1" t="n"/>
@@ -23161,10 +23161,10 @@
         <v>500000</v>
       </c>
       <c r="C333" s="21" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="D333" s="21" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="E333" s="2" t="n"/>
       <c r="F333" s="21" t="n">
@@ -23174,10 +23174,10 @@
         <v>500000</v>
       </c>
       <c r="H333" s="21" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="I333" s="21" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="J333" s="1" t="n"/>
       <c r="K333" s="1" t="n"/>
@@ -23205,10 +23205,10 @@
         <v>500000</v>
       </c>
       <c r="C334" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D334" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E334" s="2" t="n"/>
       <c r="F334" s="21" t="n"/>
@@ -23325,10 +23325,10 @@
       </c>
       <c r="B338" s="21" t="n"/>
       <c r="C338" s="21" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="D338" s="21" t="n">
-        <v>48500</v>
+        <v>47500</v>
       </c>
       <c r="E338" s="21" t="n"/>
       <c r="F338" s="21" t="inlineStr">
@@ -23337,10 +23337,10 @@
         </is>
       </c>
       <c r="H338" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="I338" s="21" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="J338" s="1" t="n"/>
       <c r="K338" s="1" t="n"/>
@@ -23406,7 +23406,7 @@
       </c>
       <c r="D340" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E340" s="2" t="n"/>
@@ -23427,7 +23427,7 @@
       </c>
       <c r="I340" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J340" s="1" t="n"/>
@@ -23516,10 +23516,10 @@
         <v>500000</v>
       </c>
       <c r="C342" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D342" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E342" s="2" t="n"/>
       <c r="F342" s="21" t="n">
@@ -23529,10 +23529,10 @@
         <v>500000</v>
       </c>
       <c r="H342" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I342" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J342" s="1" t="n"/>
       <c r="K342" s="1" t="n"/>
@@ -23672,10 +23672,10 @@
       </c>
       <c r="B347" s="21" t="n"/>
       <c r="C347" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D347" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E347" s="2" t="n"/>
       <c r="F347" s="21" t="inlineStr">
@@ -23684,10 +23684,10 @@
         </is>
       </c>
       <c r="H347" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I347" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J347" s="1" t="n"/>
       <c r="K347" s="1" t="n"/>
@@ -23753,7 +23753,7 @@
       </c>
       <c r="D349" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E349" s="2" t="n"/>
@@ -23774,7 +23774,7 @@
       </c>
       <c r="I349" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J349" s="1" t="n"/>
@@ -23863,10 +23863,10 @@
         <v>500000</v>
       </c>
       <c r="C351" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D351" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E351" s="2" t="n"/>
       <c r="F351" s="21" t="n">
@@ -23876,10 +23876,10 @@
         <v>500000</v>
       </c>
       <c r="H351" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I351" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J351" s="1" t="n"/>
       <c r="K351" s="1" t="n"/>
@@ -24019,10 +24019,10 @@
       </c>
       <c r="B356" s="21" t="n"/>
       <c r="C356" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D356" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E356" s="2" t="n"/>
       <c r="F356" s="21" t="inlineStr">
@@ -24031,10 +24031,10 @@
         </is>
       </c>
       <c r="H356" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I356" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J356" s="1" t="n"/>
       <c r="K356" s="1" t="n"/>
@@ -24100,7 +24100,7 @@
       </c>
       <c r="D358" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E358" s="2" t="n"/>
@@ -24121,7 +24121,7 @@
       </c>
       <c r="I358" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J358" s="1" t="n"/>
@@ -24210,10 +24210,10 @@
         <v>500000</v>
       </c>
       <c r="C360" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D360" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E360" s="2" t="n"/>
       <c r="F360" s="21" t="n">
@@ -24223,10 +24223,10 @@
         <v>500000</v>
       </c>
       <c r="H360" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I360" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J360" s="1" t="n"/>
       <c r="K360" s="1" t="n"/>
@@ -24254,10 +24254,10 @@
         <v>1000000</v>
       </c>
       <c r="C361" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D361" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E361" s="2" t="n"/>
       <c r="F361" s="21" t="n"/>
@@ -24374,10 +24374,10 @@
       </c>
       <c r="B365" s="21" t="n"/>
       <c r="C365" s="21" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D365" s="21" t="n">
-        <v>73000</v>
+        <v>72500</v>
       </c>
       <c r="E365" s="2" t="n"/>
       <c r="F365" s="21" t="inlineStr">
@@ -24386,10 +24386,10 @@
         </is>
       </c>
       <c r="H365" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I365" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J365" s="1" t="n"/>
       <c r="K365" s="1" t="n"/>
@@ -24455,7 +24455,7 @@
       </c>
       <c r="D367" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E367" s="2" t="n"/>
@@ -24476,7 +24476,7 @@
       </c>
       <c r="I367" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J367" s="1" t="n"/>
@@ -24565,10 +24565,10 @@
         <v>1000000</v>
       </c>
       <c r="C369" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D369" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E369" s="2" t="n"/>
       <c r="F369" s="21" t="n">
@@ -24578,10 +24578,10 @@
         <v>500000</v>
       </c>
       <c r="H369" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I369" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J369" s="1" t="n"/>
       <c r="K369" s="1" t="n"/>
@@ -24609,10 +24609,10 @@
         <v>500000</v>
       </c>
       <c r="C370" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D370" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E370" s="4" t="n"/>
       <c r="F370" s="21" t="n"/>
@@ -24729,10 +24729,10 @@
       </c>
       <c r="B374" s="21" t="n"/>
       <c r="C374" s="21" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D374" s="21" t="n">
-        <v>73000</v>
+        <v>72500</v>
       </c>
       <c r="E374" s="4" t="n"/>
       <c r="F374" s="21" t="inlineStr">
@@ -24741,10 +24741,10 @@
         </is>
       </c>
       <c r="H374" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I374" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J374" s="1" t="n"/>
       <c r="K374" s="1" t="n"/>
@@ -24810,7 +24810,7 @@
       </c>
       <c r="D376" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E376" s="4" t="n"/>
@@ -24831,7 +24831,7 @@
       </c>
       <c r="I376" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J376" s="1" t="n"/>
@@ -24920,10 +24920,10 @@
         <v>500000</v>
       </c>
       <c r="C378" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D378" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E378" s="4" t="n"/>
       <c r="F378" s="21" t="n">
@@ -24933,10 +24933,10 @@
         <v>500000</v>
       </c>
       <c r="H378" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I378" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J378" s="1" t="n"/>
       <c r="K378" s="1" t="n"/>
@@ -25076,10 +25076,10 @@
       </c>
       <c r="B383" s="21" t="n"/>
       <c r="C383" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D383" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E383" s="4" t="n"/>
       <c r="F383" s="21" t="inlineStr">
@@ -25088,10 +25088,10 @@
         </is>
       </c>
       <c r="H383" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I383" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J383" s="1" t="n"/>
       <c r="K383" s="1" t="n"/>
@@ -25157,7 +25157,7 @@
       </c>
       <c r="D385" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E385" s="4" t="n"/>
@@ -25178,7 +25178,7 @@
       </c>
       <c r="I385" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J385" s="1" t="n"/>
@@ -25267,10 +25267,10 @@
         <v>1000000</v>
       </c>
       <c r="C387" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D387" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E387" s="4" t="n"/>
       <c r="F387" s="21" t="n">
@@ -25280,10 +25280,10 @@
         <v>500000</v>
       </c>
       <c r="H387" s="21" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="I387" s="21" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="J387" s="1" t="n"/>
       <c r="K387" s="1" t="n"/>
@@ -25311,10 +25311,10 @@
         <v>1000000</v>
       </c>
       <c r="C388" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D388" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E388" s="4" t="n"/>
       <c r="F388" s="21" t="n"/>
@@ -25431,10 +25431,10 @@
       </c>
       <c r="B392" s="14" t="n"/>
       <c r="C392" s="14" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D392" s="21" t="n">
-        <v>98000</v>
+        <v>97500</v>
       </c>
       <c r="E392" s="5" t="n"/>
       <c r="F392" s="21" t="inlineStr">
@@ -25443,10 +25443,10 @@
         </is>
       </c>
       <c r="H392" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="I392" s="21" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="J392" s="1" t="n"/>
       <c r="K392" s="1" t="n"/>
@@ -25512,7 +25512,7 @@
       </c>
       <c r="D394" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E394" s="5" t="n"/>
@@ -25533,7 +25533,7 @@
       </c>
       <c r="I394" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J394" s="1" t="n"/>
@@ -25622,10 +25622,10 @@
         <v>1000000</v>
       </c>
       <c r="C396" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D396" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E396" s="5" t="n"/>
       <c r="F396" s="21" t="n">
@@ -25635,10 +25635,10 @@
         <v>1000000</v>
       </c>
       <c r="H396" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I396" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J396" s="1" t="n"/>
       <c r="K396" s="1" t="n"/>
@@ -25778,10 +25778,10 @@
       </c>
       <c r="B401" s="14" t="n"/>
       <c r="C401" s="14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D401" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E401" s="5" t="n"/>
       <c r="F401" s="21" t="inlineStr">
@@ -25790,10 +25790,10 @@
         </is>
       </c>
       <c r="H401" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I401" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J401" s="1" t="n"/>
       <c r="K401" s="1" t="n"/>
@@ -25859,7 +25859,7 @@
       </c>
       <c r="D403" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E403" s="5" t="n"/>
@@ -25880,7 +25880,7 @@
       </c>
       <c r="I403" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J403" s="1" t="n"/>
@@ -25969,10 +25969,10 @@
         <v>1000000</v>
       </c>
       <c r="C405" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D405" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E405" s="5" t="n"/>
       <c r="F405" s="21" t="n">
@@ -25982,10 +25982,10 @@
         <v>500000</v>
       </c>
       <c r="H405" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I405" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J405" s="1" t="n"/>
       <c r="K405" s="1" t="n"/>
@@ -26018,10 +26018,10 @@
         <v>500000</v>
       </c>
       <c r="H406" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I406" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J406" s="1" t="n"/>
       <c r="K406" s="1" t="n"/>
@@ -26133,10 +26133,10 @@
       </c>
       <c r="B410" s="14" t="n"/>
       <c r="C410" s="14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D410" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E410" s="5" t="n"/>
       <c r="F410" s="21" t="inlineStr">
@@ -26145,10 +26145,10 @@
         </is>
       </c>
       <c r="H410" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="I410" s="21" t="n">
-        <v>48000</v>
+        <v>47500</v>
       </c>
       <c r="J410" s="1" t="n"/>
       <c r="K410" s="1" t="n"/>
@@ -26214,7 +26214,7 @@
       </c>
       <c r="D412" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E412" s="5" t="n"/>
@@ -26235,7 +26235,7 @@
       </c>
       <c r="I412" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J412" s="1" t="n"/>
@@ -26324,10 +26324,10 @@
         <v>500000</v>
       </c>
       <c r="C414" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D414" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E414" s="5" t="n"/>
       <c r="F414" s="21" t="n">
@@ -26337,10 +26337,10 @@
         <v>1000000</v>
       </c>
       <c r="H414" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I414" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J414" s="1" t="n"/>
       <c r="K414" s="1" t="n"/>
@@ -26480,10 +26480,10 @@
       </c>
       <c r="B419" s="14" t="n"/>
       <c r="C419" s="14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D419" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E419" s="5" t="n"/>
       <c r="F419" s="21" t="inlineStr">
@@ -26492,10 +26492,10 @@
         </is>
       </c>
       <c r="H419" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I419" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J419" s="1" t="n"/>
       <c r="K419" s="1" t="n"/>
@@ -26561,7 +26561,7 @@
       </c>
       <c r="D421" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E421" s="5" t="n"/>
@@ -26582,7 +26582,7 @@
       </c>
       <c r="I421" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J421" s="1" t="n"/>
@@ -26671,10 +26671,10 @@
         <v>1000000</v>
       </c>
       <c r="C423" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D423" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E423" s="5" t="n"/>
       <c r="F423" s="21" t="n">
@@ -26684,10 +26684,10 @@
         <v>2000000</v>
       </c>
       <c r="H423" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I423" s="21" t="n">
-        <v>99000</v>
+        <v>98750</v>
       </c>
       <c r="J423" s="1" t="n"/>
       <c r="K423" s="1" t="n"/>
@@ -26827,10 +26827,10 @@
       </c>
       <c r="B428" s="14" t="n"/>
       <c r="C428" s="14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D428" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E428" s="5" t="n"/>
       <c r="F428" s="14" t="inlineStr">
@@ -26839,10 +26839,10 @@
         </is>
       </c>
       <c r="H428" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I428" s="21" t="n">
-        <v>99000</v>
+        <v>98750</v>
       </c>
       <c r="J428" s="1" t="n"/>
       <c r="K428" s="1" t="n"/>
@@ -26908,7 +26908,7 @@
       </c>
       <c r="D430" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E430" s="5" t="n"/>
@@ -26929,7 +26929,7 @@
       </c>
       <c r="I430" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J430" s="1" t="n"/>
@@ -27018,10 +27018,10 @@
         <v>1000000</v>
       </c>
       <c r="C432" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D432" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E432" s="5" t="n"/>
       <c r="F432" s="21" t="n">
@@ -27031,10 +27031,10 @@
         <v>1000000</v>
       </c>
       <c r="H432" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I432" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J432" s="1" t="n"/>
       <c r="K432" s="1" t="n"/>
@@ -27174,10 +27174,10 @@
       </c>
       <c r="B437" s="14" t="n"/>
       <c r="C437" s="14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D437" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E437" s="5" t="n"/>
       <c r="F437" s="14" t="inlineStr">
@@ -27186,10 +27186,10 @@
         </is>
       </c>
       <c r="H437" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I437" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J437" s="1" t="n"/>
       <c r="K437" s="1" t="n"/>
@@ -27255,7 +27255,7 @@
       </c>
       <c r="D439" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E439" s="5" t="n"/>
@@ -27276,7 +27276,7 @@
       </c>
       <c r="I439" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J439" s="1" t="n"/>
@@ -27365,10 +27365,10 @@
         <v>500000</v>
       </c>
       <c r="C441" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D441" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E441" s="5" t="n"/>
       <c r="F441" s="21" t="n">
@@ -27378,10 +27378,10 @@
         <v>2000000</v>
       </c>
       <c r="H441" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I441" s="21" t="n">
-        <v>99000</v>
+        <v>98750</v>
       </c>
       <c r="J441" s="1" t="n"/>
       <c r="K441" s="1" t="n"/>
@@ -27521,10 +27521,10 @@
       </c>
       <c r="B446" s="14" t="n"/>
       <c r="C446" s="14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D446" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E446" s="5" t="n"/>
       <c r="F446" s="14" t="inlineStr">
@@ -27533,10 +27533,10 @@
         </is>
       </c>
       <c r="H446" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I446" s="21" t="n">
-        <v>99000</v>
+        <v>98750</v>
       </c>
       <c r="J446" s="1" t="n"/>
       <c r="K446" s="1" t="n"/>
@@ -27602,7 +27602,7 @@
       </c>
       <c r="D448" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E448" s="5" t="n"/>
@@ -27623,7 +27623,7 @@
       </c>
       <c r="I448" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J448" s="1" t="n"/>
@@ -27712,10 +27712,10 @@
         <v>1000000</v>
       </c>
       <c r="C450" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D450" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E450" s="5" t="n"/>
       <c r="F450" s="21" t="n">
@@ -27725,10 +27725,10 @@
         <v>1000000</v>
       </c>
       <c r="H450" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I450" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J450" s="1" t="n"/>
       <c r="K450" s="1" t="n"/>
@@ -27868,10 +27868,10 @@
       </c>
       <c r="B455" s="14" t="n"/>
       <c r="C455" s="14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D455" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E455" s="5" t="n"/>
       <c r="F455" s="14" t="inlineStr">
@@ -27880,10 +27880,10 @@
         </is>
       </c>
       <c r="H455" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I455" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J455" s="1" t="n"/>
       <c r="K455" s="1" t="n"/>
@@ -27949,7 +27949,7 @@
       </c>
       <c r="D457" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E457" s="5" t="n"/>
@@ -27970,7 +27970,7 @@
       </c>
       <c r="I457" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J457" s="1" t="n"/>
@@ -28059,10 +28059,10 @@
         <v>500000</v>
       </c>
       <c r="C459" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D459" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E459" s="5" t="n"/>
       <c r="F459" s="21" t="n">
@@ -28072,10 +28072,10 @@
         <v>1000000</v>
       </c>
       <c r="H459" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I459" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J459" s="1" t="n"/>
       <c r="K459" s="1" t="n"/>
@@ -28103,10 +28103,10 @@
         <v>1000000</v>
       </c>
       <c r="C460" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D460" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E460" s="5" t="n"/>
       <c r="F460" s="21" t="n"/>
@@ -28223,10 +28223,10 @@
       </c>
       <c r="B464" s="14" t="n"/>
       <c r="C464" s="14" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D464" s="21" t="n">
-        <v>73000</v>
+        <v>72500</v>
       </c>
       <c r="E464" s="5" t="n"/>
       <c r="F464" s="14" t="inlineStr">
@@ -28235,10 +28235,10 @@
         </is>
       </c>
       <c r="H464" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I464" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J464" s="1" t="n"/>
       <c r="K464" s="1" t="n"/>
@@ -28304,7 +28304,7 @@
       </c>
       <c r="D466" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E466" s="5" t="n"/>
@@ -28325,7 +28325,7 @@
       </c>
       <c r="I466" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J466" s="1" t="n"/>
@@ -28414,10 +28414,10 @@
         <v>1000000</v>
       </c>
       <c r="C468" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D468" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E468" s="5" t="n"/>
       <c r="F468" s="21" t="n">
@@ -28427,10 +28427,10 @@
         <v>1000000</v>
       </c>
       <c r="H468" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I468" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J468" s="1" t="n"/>
       <c r="K468" s="1" t="n"/>
@@ -28458,10 +28458,10 @@
         <v>1000000</v>
       </c>
       <c r="C469" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D469" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="E469" s="5" t="n"/>
       <c r="F469" s="21" t="n"/>
@@ -28578,10 +28578,10 @@
       </c>
       <c r="B473" s="14" t="n"/>
       <c r="C473" s="14" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D473" s="21" t="n">
-        <v>98000</v>
+        <v>97500</v>
       </c>
       <c r="E473" s="5" t="n"/>
       <c r="F473" s="14" t="inlineStr">
@@ -28590,10 +28590,10 @@
         </is>
       </c>
       <c r="H473" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I473" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J473" s="1" t="n"/>
       <c r="K473" s="1" t="n"/>
@@ -28659,7 +28659,7 @@
       </c>
       <c r="D475" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E475" s="5" t="n"/>
@@ -28680,7 +28680,7 @@
       </c>
       <c r="I475" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J475" s="1" t="n"/>
@@ -28769,10 +28769,10 @@
         <v>500000</v>
       </c>
       <c r="C477" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D477" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E477" s="5" t="n"/>
       <c r="F477" s="21" t="n">
@@ -28782,10 +28782,10 @@
         <v>500000</v>
       </c>
       <c r="H477" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I477" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J477" s="1" t="n"/>
       <c r="K477" s="1" t="n"/>
@@ -28925,10 +28925,10 @@
       </c>
       <c r="B482" s="14" t="n"/>
       <c r="C482" s="14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D482" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E482" s="5" t="n"/>
       <c r="F482" s="14" t="inlineStr">
@@ -28937,10 +28937,10 @@
         </is>
       </c>
       <c r="H482" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I482" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J482" s="1" t="n"/>
       <c r="K482" s="1" t="n"/>
@@ -29006,7 +29006,7 @@
       </c>
       <c r="D484" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E484" s="5" t="n"/>
@@ -29027,7 +29027,7 @@
       </c>
       <c r="I484" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J484" s="1" t="n"/>
@@ -29116,10 +29116,10 @@
         <v>500000</v>
       </c>
       <c r="C486" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D486" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E486" s="5" t="n"/>
       <c r="F486" s="21" t="n">
@@ -29129,10 +29129,10 @@
         <v>500000</v>
       </c>
       <c r="H486" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I486" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J486" s="1" t="n"/>
       <c r="K486" s="1" t="n"/>
@@ -29160,10 +29160,10 @@
         <v>500000</v>
       </c>
       <c r="C487" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D487" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E487" s="5" t="n"/>
       <c r="F487" s="21" t="n"/>
@@ -29280,10 +29280,10 @@
       </c>
       <c r="B491" s="14" t="n"/>
       <c r="C491" s="14" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D491" s="21" t="n">
-        <v>48000</v>
+        <v>47500</v>
       </c>
       <c r="E491" s="5" t="n"/>
       <c r="F491" s="14" t="inlineStr">
@@ -29292,10 +29292,10 @@
         </is>
       </c>
       <c r="H491" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I491" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J491" s="1" t="n"/>
       <c r="K491" s="1" t="n"/>
@@ -29361,7 +29361,7 @@
       </c>
       <c r="D493" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E493" s="5" t="n"/>
@@ -29382,7 +29382,7 @@
       </c>
       <c r="I493" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="J493" s="1" t="n"/>
@@ -29471,10 +29471,10 @@
         <v>500000</v>
       </c>
       <c r="C495" s="21" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="D495" s="21" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="E495" s="5" t="n"/>
       <c r="F495" s="21" t="n">
@@ -29484,10 +29484,10 @@
         <v>500000</v>
       </c>
       <c r="H495" s="21" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="I495" s="21" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="J495" s="1" t="n"/>
       <c r="K495" s="1" t="n"/>
@@ -29520,10 +29520,10 @@
         <v>500000</v>
       </c>
       <c r="H496" s="21" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="I496" s="21" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="J496" s="1" t="n"/>
       <c r="K496" s="1" t="n"/>
@@ -29556,10 +29556,10 @@
         <v>500000</v>
       </c>
       <c r="H497" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I497" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="J497" s="1" t="n"/>
       <c r="K497" s="1" t="n"/>
@@ -29592,10 +29592,10 @@
         <v>1000000</v>
       </c>
       <c r="H498" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I498" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="J498" s="1" t="n"/>
       <c r="K498" s="1" t="n"/>
@@ -29651,10 +29651,10 @@
       </c>
       <c r="B500" s="14" t="n"/>
       <c r="C500" s="14" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="D500" s="21" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="E500" s="5" t="n"/>
       <c r="F500" s="14" t="inlineStr">
@@ -29663,10 +29663,10 @@
         </is>
       </c>
       <c r="H500" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I500" s="21" t="n">
-        <v>122000</v>
+        <v>120000</v>
       </c>
       <c r="J500" s="1" t="n"/>
       <c r="K500" s="1" t="n"/>
@@ -29722,7 +29722,7 @@
       </c>
       <c r="D502" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E502" s="5" t="n"/>
@@ -29743,7 +29743,7 @@
       </c>
       <c r="I502" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="K502" s="1" t="n"/>
@@ -29813,10 +29813,10 @@
         <v>2000000</v>
       </c>
       <c r="C504" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D504" s="21" t="n">
-        <v>99000</v>
+        <v>98750</v>
       </c>
       <c r="E504" s="5" t="n"/>
       <c r="F504" s="21" t="n">
@@ -29826,10 +29826,10 @@
         <v>500000</v>
       </c>
       <c r="H504" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I504" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
     </row>
     <row r="505" ht="20.25" customHeight="1">
@@ -29884,10 +29884,10 @@
       </c>
       <c r="B509" s="14" t="n"/>
       <c r="C509" s="14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D509" s="21" t="n">
-        <v>99000</v>
+        <v>98750</v>
       </c>
       <c r="E509" s="5" t="n"/>
       <c r="F509" s="14" t="inlineStr">
@@ -29897,10 +29897,10 @@
       </c>
       <c r="G509" s="14" t="n"/>
       <c r="H509" s="14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I509" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
     </row>
     <row r="510" ht="16.5" customHeight="1"/>
@@ -29922,7 +29922,7 @@
       </c>
       <c r="D511" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="E511" s="5" t="n"/>
@@ -29943,7 +29943,7 @@
       </c>
       <c r="I511" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
     </row>
@@ -29998,10 +29998,10 @@
         <v>500000</v>
       </c>
       <c r="C513" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D513" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E513" s="5" t="n"/>
       <c r="F513" s="21" t="n">
@@ -30011,10 +30011,10 @@
         <v>500000</v>
       </c>
       <c r="H513" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I513" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
     </row>
     <row r="514" ht="20.25" customHeight="1">
@@ -30069,10 +30069,10 @@
       </c>
       <c r="B518" s="14" t="n"/>
       <c r="C518" s="14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D518" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="E518" s="5" t="n"/>
       <c r="F518" s="14" t="inlineStr">
@@ -30081,10 +30081,10 @@
         </is>
       </c>
       <c r="H518" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I518" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
     </row>
     <row r="519" ht="16.5" customHeight="1"/>
@@ -30106,7 +30106,7 @@
       </c>
       <c r="D520" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="F520" s="14" t="inlineStr">
@@ -30126,7 +30126,7 @@
       </c>
       <c r="I520" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
     </row>
@@ -30180,10 +30180,10 @@
         <v>500000</v>
       </c>
       <c r="C522" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D522" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="F522" s="21" t="n">
         <v>10</v>
@@ -30192,10 +30192,10 @@
         <v>1000000</v>
       </c>
       <c r="H522" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I522" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
     </row>
     <row r="523" ht="20.25" customHeight="1">
@@ -30210,10 +30210,10 @@
         <v>1000000</v>
       </c>
       <c r="H523" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I523" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
     </row>
     <row r="524" ht="20.25" customHeight="1">
@@ -30254,10 +30254,10 @@
       </c>
       <c r="B527" s="14" t="n"/>
       <c r="C527" s="14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D527" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="F527" s="14" t="inlineStr">
         <is>
@@ -30265,10 +30265,10 @@
         </is>
       </c>
       <c r="H527" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="I527" s="21" t="n">
-        <v>98000</v>
+        <v>97500</v>
       </c>
     </row>
     <row r="528" ht="16.5" customHeight="1"/>
@@ -30290,7 +30290,7 @@
       </c>
       <c r="D529" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="F529" s="14" t="inlineStr">
@@ -30310,7 +30310,7 @@
       </c>
       <c r="I529" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
     </row>
@@ -30364,10 +30364,10 @@
         <v>1000000</v>
       </c>
       <c r="C531" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D531" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="F531" s="21" t="n">
         <v>10</v>
@@ -30376,10 +30376,10 @@
         <v>2000000</v>
       </c>
       <c r="H531" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I531" s="21" t="n">
-        <v>99000</v>
+        <v>98750</v>
       </c>
     </row>
     <row r="532" ht="20.25" customHeight="1">
@@ -30390,10 +30390,10 @@
         <v>1000000</v>
       </c>
       <c r="C532" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D532" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="F532" s="21" t="n"/>
       <c r="G532" s="21" t="n"/>
@@ -30438,10 +30438,10 @@
       </c>
       <c r="B536" s="14" t="n"/>
       <c r="C536" s="14" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D536" s="21" t="n">
-        <v>98000</v>
+        <v>97500</v>
       </c>
       <c r="F536" s="14" t="inlineStr">
         <is>
@@ -30450,10 +30450,10 @@
       </c>
       <c r="G536" s="14" t="n"/>
       <c r="H536" s="14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I536" s="21" t="n">
-        <v>99000</v>
+        <v>98750</v>
       </c>
     </row>
     <row r="537" ht="16.5" customHeight="1"/>
@@ -30475,7 +30475,7 @@
       </c>
       <c r="D538" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="F538" s="14" t="inlineStr">
@@ -30495,7 +30495,7 @@
       </c>
       <c r="I538" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
     </row>
@@ -30549,10 +30549,10 @@
         <v>1000000</v>
       </c>
       <c r="C540" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D540" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="F540" s="21" t="n">
         <v>5</v>
@@ -30561,10 +30561,10 @@
         <v>1000000</v>
       </c>
       <c r="H540" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I540" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
     </row>
     <row r="541" ht="20.25" customHeight="1">
@@ -30579,10 +30579,10 @@
         <v>1000000</v>
       </c>
       <c r="H541" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I541" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
     </row>
     <row r="542" ht="20.25" customHeight="1">
@@ -30623,10 +30623,10 @@
       </c>
       <c r="B545" s="14" t="n"/>
       <c r="C545" s="14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D545" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="F545" s="14" t="inlineStr">
         <is>
@@ -30635,10 +30635,10 @@
       </c>
       <c r="G545" s="14" t="n"/>
       <c r="H545" s="14" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="I545" s="21" t="n">
-        <v>98000</v>
+        <v>97500</v>
       </c>
     </row>
     <row r="546" ht="16.5" customHeight="1"/>
@@ -30660,7 +30660,7 @@
       </c>
       <c r="D547" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="F547" s="14" t="inlineStr">
@@ -30680,7 +30680,7 @@
       </c>
       <c r="I547" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
     </row>
@@ -30734,10 +30734,10 @@
         <v>1000000</v>
       </c>
       <c r="C549" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D549" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="F549" s="21" t="n">
         <v>5.1</v>
@@ -30746,10 +30746,10 @@
         <v>1000000</v>
       </c>
       <c r="H549" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I549" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
     </row>
     <row r="550" ht="20.25" customHeight="1">
@@ -30800,10 +30800,10 @@
       </c>
       <c r="B554" s="14" t="n"/>
       <c r="C554" s="14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D554" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="F554" s="14" t="inlineStr">
         <is>
@@ -30812,10 +30812,10 @@
       </c>
       <c r="G554" s="14" t="n"/>
       <c r="H554" s="14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I554" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
     </row>
     <row r="555" ht="16.5" customHeight="1"/>
@@ -30837,7 +30837,7 @@
       </c>
       <c r="D556" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="F556" s="14" t="inlineStr">
@@ -30857,7 +30857,7 @@
       </c>
       <c r="I556" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
     </row>
@@ -30911,10 +30911,10 @@
         <v>1000000</v>
       </c>
       <c r="C558" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D558" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="F558" s="21" t="n">
         <v>5</v>
@@ -30923,10 +30923,10 @@
         <v>500000</v>
       </c>
       <c r="H558" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I558" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
     </row>
     <row r="559" ht="20.25" customHeight="1">
@@ -30977,10 +30977,10 @@
       </c>
       <c r="B563" s="14" t="n"/>
       <c r="C563" s="14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D563" s="21" t="n">
-        <v>49000</v>
+        <v>48750</v>
       </c>
       <c r="F563" s="14" t="inlineStr">
         <is>
@@ -30989,10 +30989,10 @@
       </c>
       <c r="G563" s="14" t="n"/>
       <c r="H563" s="14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I563" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
     </row>
     <row r="564" ht="16.5" customHeight="1"/>
@@ -31014,7 +31014,7 @@
       </c>
       <c r="D565" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="F565" s="14" t="inlineStr">
@@ -31034,7 +31034,7 @@
       </c>
       <c r="I565" s="21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
     </row>
@@ -31088,10 +31088,10 @@
         <v>500000</v>
       </c>
       <c r="C567" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D567" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="F567" s="21" t="n">
         <v>5</v>
@@ -31100,10 +31100,10 @@
         <v>500000</v>
       </c>
       <c r="H567" s="21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I567" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
     </row>
     <row r="568" ht="20.25" customHeight="1">
@@ -31154,10 +31154,10 @@
       </c>
       <c r="B572" s="14" t="n"/>
       <c r="C572" s="14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="D572" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
       <c r="F572" s="14" t="inlineStr">
         <is>
@@ -31166,10 +31166,10 @@
       </c>
       <c r="G572" s="14" t="n"/>
       <c r="H572" s="14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I572" s="21" t="n">
-        <v>24000</v>
+        <v>23750</v>
       </c>
     </row>
     <row r="573" ht="16.5" customHeight="1"/>

--- a/sample_gemini.xlsx
+++ b/sample_gemini.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="feb" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="mar2026" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="jan2026" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="D1" s="20" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E1" s="21" t="n"/>
@@ -8289,7 +8289,7 @@
       </c>
       <c r="I1" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J1" s="22" t="n"/>
@@ -8417,29 +8417,29 @@
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" s="20" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" s="20" t="n">
         <v>1000000</v>
       </c>
       <c r="C3" s="20" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D3" s="20" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E3" s="21" t="n"/>
       <c r="F3" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G3" s="21" t="n">
         <v>500000</v>
       </c>
       <c r="H3" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I3" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J3" s="22" t="n"/>
       <c r="K3" s="1" t="n"/>
@@ -8450,21 +8450,21 @@
         <v>500000</v>
       </c>
       <c r="N3" s="22" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="O3" s="22">
         <f>L3&amp;"|"&amp;M3</f>
         <v/>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="22">
         <f>L3&amp;"|"&amp;M3</f>
         <v/>
       </c>
       <c r="R3" s="22" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1">
@@ -8501,10 +8501,10 @@
         <v>500000</v>
       </c>
       <c r="C4" s="20" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D4" s="20" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E4" s="21" t="n"/>
       <c r="F4" s="21" t="n"/>
@@ -8520,21 +8520,21 @@
         <v>250000</v>
       </c>
       <c r="N4" s="22" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="O4" s="22">
         <f>L4&amp;"|"&amp;M4</f>
         <v/>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="22">
         <f>L4&amp;"|"&amp;M4</f>
         <v/>
       </c>
       <c r="R4" s="22" t="n">
-        <v>11250</v>
+        <v>12500</v>
       </c>
       <c r="S4" s="1" t="n"/>
       <c r="T4" s="1">
@@ -8582,21 +8582,21 @@
         <v>2000000</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="O5" s="22">
         <f>L5&amp;"|"&amp;M5</f>
         <v/>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="22">
         <f>L5&amp;"|"&amp;M5</f>
         <v/>
       </c>
       <c r="R5" s="22" t="n">
-        <v>98750</v>
+        <v>100000</v>
       </c>
       <c r="S5" s="1" t="n"/>
       <c r="T5" s="1">
@@ -8644,21 +8644,21 @@
         <v>500000</v>
       </c>
       <c r="N6" s="22" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="O6" s="22">
         <f>L6&amp;"|"&amp;M6</f>
         <v/>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="22">
         <f>L6&amp;"|"&amp;M6</f>
         <v/>
       </c>
       <c r="R6" s="22" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="S6" s="1" t="n"/>
       <c r="T6" s="1">
@@ -8700,27 +8700,27 @@
       <c r="J7" s="22" t="n"/>
       <c r="K7" s="1" t="n"/>
       <c r="L7" s="22" t="n">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="M7" s="22" t="n">
         <v>500000</v>
       </c>
       <c r="N7" s="22" t="n">
-        <v>25000</v>
+        <v>1500</v>
       </c>
       <c r="O7" s="22">
         <f>L7&amp;"|"&amp;M7</f>
         <v/>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1250</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="22">
         <f>L7&amp;"|"&amp;M7</f>
         <v/>
       </c>
       <c r="R7" s="22" t="n">
-        <v>23750</v>
+        <v>24925</v>
       </c>
       <c r="S7" s="1" t="n"/>
       <c r="T7" s="1">
@@ -8757,10 +8757,10 @@
       </c>
       <c r="B8" s="20" t="n"/>
       <c r="C8" s="20" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D8" s="20" t="n">
-        <v>72500</v>
+        <v>75000</v>
       </c>
       <c r="E8" s="21" t="n"/>
       <c r="F8" s="21" t="inlineStr">
@@ -8769,35 +8769,35 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I8" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J8" s="22" t="n"/>
       <c r="K8" s="1" t="n"/>
       <c r="L8" s="22" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="M8" s="22" t="n">
         <v>1000000</v>
       </c>
       <c r="N8" s="22" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="O8" s="22">
         <f>L8&amp;"|"&amp;M8</f>
         <v/>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="22">
         <f>L8&amp;"|"&amp;M8</f>
         <v/>
       </c>
       <c r="R8" s="22" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="S8" s="1" t="n"/>
       <c r="T8" s="1">
@@ -8839,27 +8839,27 @@
       <c r="J9" s="22" t="n"/>
       <c r="K9" s="1" t="n"/>
       <c r="L9" s="22" t="n">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="M9" s="22" t="n">
         <v>1000000</v>
       </c>
       <c r="N9" s="22" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="O9" s="22">
         <f>L9&amp;"|"&amp;M9</f>
         <v/>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="22">
         <f>L9&amp;"|"&amp;M9</f>
         <v/>
       </c>
       <c r="R9" s="22" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="S9" s="1" t="n"/>
       <c r="T9" s="1">
@@ -8906,7 +8906,7 @@
       </c>
       <c r="D10" s="20" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -8927,7 +8927,7 @@
       </c>
       <c r="I10" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J10" s="22" t="n"/>
@@ -8939,21 +8939,21 @@
         <v>500000</v>
       </c>
       <c r="N10" s="22" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="O10" s="22">
         <f>L10&amp;"|"&amp;M10</f>
         <v/>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="22">
         <f>L10&amp;"|"&amp;M10</f>
         <v/>
       </c>
       <c r="R10" s="22" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="S10" s="1" t="n"/>
       <c r="T10" s="1">
@@ -9033,21 +9033,21 @@
         <v>500000</v>
       </c>
       <c r="N11" s="22" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="O11" s="22">
         <f>L11&amp;"|"&amp;M11</f>
         <v/>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="22">
         <f>L11&amp;"|"&amp;M11</f>
         <v/>
       </c>
       <c r="R11" s="22" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="S11" s="1" t="n"/>
       <c r="T11" s="1">
@@ -9078,29 +9078,29 @@
     </row>
     <row r="12" ht="20.25" customHeight="1">
       <c r="A12" s="20" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B12" s="20" t="n">
         <v>500000</v>
       </c>
       <c r="C12" s="20" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D12" s="20" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E12" s="21" t="n"/>
       <c r="F12" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G12" s="21" t="n">
         <v>500000</v>
       </c>
       <c r="H12" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I12" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="1" t="n"/>
@@ -9111,21 +9111,21 @@
         <v>1000000</v>
       </c>
       <c r="N12" s="22" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="O12" s="22">
         <f>L12&amp;"|"&amp;M12</f>
         <v/>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="22">
         <f>L12&amp;"|"&amp;M12</f>
         <v/>
       </c>
       <c r="R12" s="22" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="S12" s="1" t="n"/>
       <c r="T12" s="1">
@@ -9167,27 +9167,27 @@
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="1" t="n"/>
       <c r="L13" s="22" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M13" s="1" t="n">
         <v>1000000</v>
       </c>
       <c r="N13" s="1" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="O13" s="22">
         <f>L13&amp;"|"&amp;M13</f>
         <v/>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="22">
         <f>L13&amp;"|"&amp;M13</f>
         <v/>
       </c>
       <c r="R13" s="22" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="S13" s="1" t="n"/>
       <c r="T13" s="1">
@@ -9235,21 +9235,21 @@
         <v>1000000</v>
       </c>
       <c r="N14" s="22" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="O14" s="22">
         <f>L14&amp;"|"&amp;M14</f>
         <v/>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="22">
         <f>L14&amp;"|"&amp;M14</f>
         <v/>
       </c>
       <c r="R14" s="22" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="S14" s="1" t="n"/>
       <c r="T14" s="1">
@@ -9291,27 +9291,27 @@
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="1" t="n"/>
       <c r="L15" s="22" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="M15" s="22" t="n">
         <v>500000</v>
       </c>
       <c r="N15" s="22" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="O15" s="22">
         <f>L15&amp;"|"&amp;M15</f>
         <v/>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="22">
         <f>L15&amp;"|"&amp;M15</f>
         <v/>
       </c>
       <c r="R15" s="22" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="S15" s="1" t="n"/>
       <c r="T15" s="1">
@@ -9353,27 +9353,27 @@
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="1" t="n"/>
       <c r="L16" s="22" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="M16" s="22" t="n">
         <v>1000000</v>
       </c>
       <c r="N16" s="22" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="O16" s="22">
         <f>L16&amp;"|"&amp;M16</f>
         <v/>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="22">
         <f>L16&amp;"|"&amp;M16</f>
         <v/>
       </c>
       <c r="R16" s="22" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="S16" s="1" t="n"/>
       <c r="T16" s="1">
@@ -9410,10 +9410,10 @@
       </c>
       <c r="B17" s="20" t="n"/>
       <c r="C17" s="20" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D17" s="20" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="21" t="inlineStr">
@@ -9422,10 +9422,10 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I17" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="1" t="n"/>
@@ -9476,27 +9476,27 @@
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="1" t="n"/>
       <c r="L18" s="22" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="M18" s="1" t="n">
         <v>250000</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="O18" s="22">
         <f>L18&amp;"|"&amp;M18</f>
         <v/>
       </c>
       <c r="P18" s="22" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="22">
         <f>L18&amp;"|"&amp;M18</f>
         <v/>
       </c>
       <c r="R18" s="22" t="n">
-        <v>11250</v>
+        <v>12500</v>
       </c>
       <c r="S18" s="1" t="n"/>
       <c r="T18" s="1">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="D19" s="20" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E19" s="2" t="n"/>
@@ -9564,7 +9564,7 @@
       </c>
       <c r="I19" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
@@ -9683,29 +9683,29 @@
     </row>
     <row r="21" ht="20.25" customHeight="1">
       <c r="A21" s="20" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B21" s="20" t="n">
         <v>1000000</v>
       </c>
       <c r="C21" s="20" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D21" s="20" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G21" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="H21" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I21" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J21" s="1" t="n"/>
       <c r="K21" s="1" t="n"/>
@@ -9765,23 +9765,23 @@
         <v>2000000</v>
       </c>
       <c r="C22" s="20" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D22" s="20" t="n">
-        <v>98750</v>
+        <v>100000</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="21" t="n">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="G22" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="H22" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I22" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J22" s="1" t="n"/>
       <c r="K22" s="1" t="n"/>
@@ -9826,16 +9826,16 @@
       <c r="D23" s="20" t="n"/>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="21" t="n">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="G23" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="H23" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I23" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J23" s="1" t="n"/>
       <c r="K23" s="1" t="n"/>
@@ -9980,10 +9980,10 @@
       </c>
       <c r="B26" s="20" t="n"/>
       <c r="C26" s="20" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D26" s="20" t="n">
-        <v>147500</v>
+        <v>150000</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="21" t="inlineStr">
@@ -9992,10 +9992,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="I26" s="21" t="n">
-        <v>146250</v>
+        <v>150000</v>
       </c>
       <c r="J26" s="1" t="n"/>
       <c r="K26" s="1" t="n"/>
@@ -10097,7 +10097,7 @@
       </c>
       <c r="D28" s="20" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E28" s="2" t="n"/>
@@ -10118,7 +10118,7 @@
       </c>
       <c r="I28" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J28" s="1" t="n"/>
@@ -10236,16 +10236,16 @@
     </row>
     <row r="30" ht="20.25" customHeight="1">
       <c r="A30" s="20" t="n">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="B30" s="20" t="n">
         <v>1000000</v>
       </c>
       <c r="C30" s="20" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D30" s="20" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="21" t="n">
@@ -10255,10 +10255,10 @@
         <v>500000</v>
       </c>
       <c r="H30" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I30" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J30" s="1" t="n"/>
       <c r="K30" s="1" t="n"/>
@@ -10304,10 +10304,10 @@
         <v>500000</v>
       </c>
       <c r="C31" s="20" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D31" s="20" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="21" t="n"/>
@@ -10358,10 +10358,10 @@
         <v>500000</v>
       </c>
       <c r="C32" s="20" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D32" s="20" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="21" t="n"/>
@@ -10406,16 +10406,16 @@
     </row>
     <row r="33" ht="20.25" customHeight="1">
       <c r="A33" s="20" t="n">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="B33" s="20" t="n">
         <v>1000000</v>
       </c>
       <c r="C33" s="20" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D33" s="20" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="21" t="n"/>
@@ -10512,10 +10512,10 @@
       </c>
       <c r="B35" s="20" t="n"/>
       <c r="C35" s="20" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="D35" s="20" t="n">
-        <v>145000</v>
+        <v>150000</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="21" t="inlineStr">
@@ -10524,10 +10524,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I35" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J35" s="1" t="n"/>
       <c r="K35" s="1" t="n"/>
@@ -10629,7 +10629,7 @@
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E37" s="2" t="n"/>
@@ -10650,7 +10650,7 @@
       </c>
       <c r="I37" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J37" s="1" t="n"/>
@@ -10775,23 +10775,23 @@
         <v>250000</v>
       </c>
       <c r="C39" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D39" s="21" t="n">
-        <v>11250</v>
+        <v>12500</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="21" t="n">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="G39" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="H39" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I39" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J39" s="1" t="n"/>
       <c r="K39" s="1" t="n"/>
@@ -10831,16 +10831,16 @@
     </row>
     <row r="40" ht="20.25" customHeight="1">
       <c r="A40" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B40" s="21" t="n">
         <v>250000</v>
       </c>
       <c r="C40" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D40" s="21" t="n">
-        <v>11250</v>
+        <v>12500</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="21" t="n">
@@ -10850,10 +10850,10 @@
         <v>2000000</v>
       </c>
       <c r="H40" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I40" s="21" t="n">
-        <v>98750</v>
+        <v>100000</v>
       </c>
       <c r="J40" s="1" t="n"/>
       <c r="K40" s="1" t="n"/>
@@ -11036,10 +11036,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D44" s="21" t="n">
-        <v>22500</v>
+        <v>25000</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="21" t="inlineStr">
@@ -11048,10 +11048,10 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I44" s="21" t="n">
-        <v>147500</v>
+        <v>150000</v>
       </c>
       <c r="J44" s="1" t="n"/>
       <c r="K44" s="1" t="n"/>
@@ -11153,7 +11153,7 @@
       </c>
       <c r="D46" s="20" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E46" s="2" t="n"/>
@@ -11174,7 +11174,7 @@
       </c>
       <c r="I46" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J46" s="1" t="n"/>
@@ -11293,16 +11293,16 @@
     </row>
     <row r="48" ht="20.25" customHeight="1">
       <c r="A48" s="20" t="n">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="B48" s="20" t="n">
         <v>500000</v>
       </c>
       <c r="C48" s="20" t="n">
-        <v>1250</v>
+        <v>75</v>
       </c>
       <c r="D48" s="20" t="n">
-        <v>23750</v>
+        <v>24925</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="21" t="n">
@@ -11312,10 +11312,10 @@
         <v>500000</v>
       </c>
       <c r="H48" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I48" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J48" s="1" t="n"/>
       <c r="K48" s="1" t="n"/>
@@ -11366,10 +11366,10 @@
         <v>500000</v>
       </c>
       <c r="H49" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I49" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J49" s="1" t="n"/>
       <c r="K49" s="1" t="n"/>
@@ -11553,10 +11553,10 @@
       </c>
       <c r="B53" s="20" t="n"/>
       <c r="C53" s="20" t="n">
-        <v>1250</v>
+        <v>75</v>
       </c>
       <c r="D53" s="20" t="n">
-        <v>23750</v>
+        <v>24925</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="21" t="inlineStr">
@@ -11565,10 +11565,10 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I53" s="21" t="n">
-        <v>47500</v>
+        <v>50000</v>
       </c>
       <c r="J53" s="1" t="n"/>
       <c r="K53" s="1" t="n"/>
@@ -11670,7 +11670,7 @@
       </c>
       <c r="D55" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E55" s="2" t="n"/>
@@ -11691,7 +11691,7 @@
       </c>
       <c r="I55" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J55" s="1" t="n"/>
@@ -11814,29 +11814,29 @@
     </row>
     <row r="57" ht="20.25" customHeight="1">
       <c r="A57" s="21" t="n">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="B57" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="C57" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D57" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G57" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="H57" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I57" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J57" s="1" t="n"/>
       <c r="K57" s="1" t="n"/>
@@ -11882,10 +11882,10 @@
         <v>1000000</v>
       </c>
       <c r="C58" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D58" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="21" t="n">
@@ -11895,10 +11895,10 @@
         <v>500000</v>
       </c>
       <c r="H58" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I58" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J58" s="1" t="n"/>
       <c r="K58" s="1" t="n"/>
@@ -12081,10 +12081,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D62" s="21" t="n">
-        <v>97500</v>
+        <v>100000</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="21" t="inlineStr">
@@ -12093,10 +12093,10 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I62" s="21" t="n">
-        <v>72500</v>
+        <v>75000</v>
       </c>
       <c r="J62" s="1" t="n"/>
       <c r="K62" s="1" t="n"/>
@@ -12198,7 +12198,7 @@
       </c>
       <c r="D64" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E64" s="2" t="n"/>
@@ -12219,7 +12219,7 @@
       </c>
       <c r="I64" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J64" s="1" t="n"/>
@@ -12338,29 +12338,29 @@
     </row>
     <row r="66" ht="20.25" customHeight="1">
       <c r="A66" s="21" t="n">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="B66" s="21" t="n">
         <v>500000</v>
       </c>
       <c r="C66" s="21" t="n">
-        <v>1250</v>
+        <v>75</v>
       </c>
       <c r="D66" s="21" t="n">
-        <v>23750</v>
+        <v>24925</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="21" t="n">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="G66" s="21" t="n">
         <v>500000</v>
       </c>
       <c r="H66" s="21" t="n">
-        <v>1250</v>
+        <v>75</v>
       </c>
       <c r="I66" s="21" t="n">
-        <v>23750</v>
+        <v>24925</v>
       </c>
       <c r="J66" s="1" t="n"/>
       <c r="K66" s="1" t="n"/>
@@ -12396,10 +12396,10 @@
         <v>2000000</v>
       </c>
       <c r="C67" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D67" s="21" t="n">
-        <v>98750</v>
+        <v>100000</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="21" t="n">
@@ -12409,10 +12409,10 @@
         <v>500000</v>
       </c>
       <c r="H67" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I67" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J67" s="1" t="n"/>
       <c r="K67" s="1" t="n"/>
@@ -12528,10 +12528,10 @@
       </c>
       <c r="B71" s="16" t="n"/>
       <c r="C71" s="13" t="n">
-        <v>2500</v>
+        <v>75</v>
       </c>
       <c r="D71" s="21" t="n">
-        <v>122500</v>
+        <v>124925</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="21" t="inlineStr">
@@ -12540,10 +12540,10 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>2500</v>
+        <v>75</v>
       </c>
       <c r="I71" s="21" t="n">
-        <v>47500</v>
+        <v>49925</v>
       </c>
       <c r="J71" s="1" t="n"/>
       <c r="K71" s="1" t="n"/>
@@ -12616,7 +12616,7 @@
       </c>
       <c r="D73" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E73" s="2" t="n"/>
@@ -12637,7 +12637,7 @@
       </c>
       <c r="I73" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J73" s="1" t="n"/>
@@ -12720,16 +12720,16 @@
     </row>
     <row r="75" ht="20.25" customHeight="1">
       <c r="A75" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B75" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="C75" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D75" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="21" t="n">
@@ -12739,10 +12739,10 @@
         <v>1000000</v>
       </c>
       <c r="H75" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I75" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J75" s="1" t="n"/>
       <c r="K75" s="1" t="n"/>
@@ -12764,16 +12764,16 @@
     </row>
     <row r="76" ht="20.25" customHeight="1">
       <c r="A76" s="21" t="n">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="B76" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="C76" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D76" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="21" t="n">
@@ -12783,10 +12783,10 @@
         <v>1000000</v>
       </c>
       <c r="H76" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I76" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J76" s="1" t="n"/>
       <c r="K76" s="1" t="n"/>
@@ -12814,23 +12814,23 @@
         <v>1000000</v>
       </c>
       <c r="C77" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D77" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G77" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="H77" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I77" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J77" s="1" t="n"/>
       <c r="K77" s="1" t="n"/>
@@ -12852,29 +12852,29 @@
     </row>
     <row r="78" ht="20.25" customHeight="1">
       <c r="A78" s="21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="B78" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="C78" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D78" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G78" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="H78" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I78" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J78" s="1" t="n"/>
       <c r="K78" s="1" t="n"/>
@@ -12896,16 +12896,16 @@
     </row>
     <row r="79" ht="20.25" customHeight="1">
       <c r="A79" s="21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="B79" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="C79" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D79" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="21" t="n">
@@ -12915,10 +12915,10 @@
         <v>500000</v>
       </c>
       <c r="H79" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I79" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J79" s="1" t="n"/>
       <c r="K79" s="1" t="n"/>
@@ -12946,23 +12946,23 @@
         <v>250000</v>
       </c>
       <c r="C80" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D80" s="21" t="n">
-        <v>11250</v>
+        <v>12500</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G80" s="21" t="n">
         <v>500000</v>
       </c>
       <c r="H80" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I80" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J80" s="1" t="n"/>
       <c r="K80" s="1" t="n"/>
@@ -12984,29 +12984,29 @@
     </row>
     <row r="81" ht="20.25" customHeight="1">
       <c r="A81" s="21" t="n">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="B81" s="21" t="n">
         <v>500000</v>
       </c>
       <c r="C81" s="21" t="n">
-        <v>1250</v>
+        <v>75</v>
       </c>
       <c r="D81" s="21" t="n">
-        <v>23750</v>
+        <v>24925</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G81" s="21" t="n">
         <v>500000</v>
       </c>
       <c r="H81" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I81" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J81" s="1" t="n"/>
       <c r="K81" s="1" t="n"/>
@@ -13028,29 +13028,29 @@
     </row>
     <row r="82" ht="20.25" customHeight="1">
       <c r="A82" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B82" s="21" t="n">
         <v>250000</v>
       </c>
       <c r="C82" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D82" s="21" t="n">
-        <v>11250</v>
+        <v>12500</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G82" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="H82" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I82" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J82" s="1" t="n"/>
       <c r="K82" s="1" t="n"/>
@@ -13078,23 +13078,23 @@
         <v>2000000</v>
       </c>
       <c r="C83" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D83" s="21" t="n">
-        <v>98750</v>
+        <v>100000</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="21" t="n">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="G83" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="H83" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I83" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J83" s="1" t="n"/>
       <c r="K83" s="1" t="n"/>
@@ -13122,10 +13122,10 @@
         <v>500000</v>
       </c>
       <c r="C84" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D84" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="21" t="n">
@@ -13135,10 +13135,10 @@
         <v>1000000</v>
       </c>
       <c r="H84" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I84" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J84" s="1" t="n"/>
       <c r="K84" s="1" t="n"/>
@@ -13166,10 +13166,10 @@
       </c>
       <c r="B85" s="21" t="n"/>
       <c r="C85" s="21" t="n">
-        <v>12500</v>
+        <v>75</v>
       </c>
       <c r="D85" s="21" t="n">
-        <v>412500</v>
+        <v>424925</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="21" t="inlineStr">
@@ -13178,10 +13178,10 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="I85" s="21" t="n">
-        <v>412500</v>
+        <v>425000</v>
       </c>
       <c r="J85" s="1" t="n"/>
       <c r="K85" s="1" t="n"/>
@@ -13247,7 +13247,7 @@
       </c>
       <c r="D87" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E87" s="2" t="n"/>
@@ -13268,7 +13268,7 @@
       </c>
       <c r="I87" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J87" s="1" t="n"/>
@@ -13351,29 +13351,29 @@
     </row>
     <row r="89" ht="20.25" customHeight="1">
       <c r="A89" s="21" t="n">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="B89" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="C89" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D89" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="21" t="n">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="G89" s="21" t="n">
         <v>500000</v>
       </c>
       <c r="H89" s="21" t="n">
-        <v>1250</v>
+        <v>75</v>
       </c>
       <c r="I89" s="21" t="n">
-        <v>23750</v>
+        <v>24925</v>
       </c>
       <c r="J89" s="1" t="n"/>
       <c r="K89" s="1" t="n"/>
@@ -13401,10 +13401,10 @@
         <v>1000000</v>
       </c>
       <c r="C90" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D90" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="21" t="n"/>
@@ -13437,10 +13437,10 @@
         <v>2000000</v>
       </c>
       <c r="C91" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D91" s="21" t="n">
-        <v>98750</v>
+        <v>100000</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="21" t="n"/>
@@ -13473,10 +13473,10 @@
         <v>2000000</v>
       </c>
       <c r="C92" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D92" s="21" t="n">
-        <v>98750</v>
+        <v>100000</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="21" t="n"/>
@@ -13537,10 +13537,10 @@
       </c>
       <c r="B94" s="21" t="n"/>
       <c r="C94" s="21" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="D94" s="21" t="n">
-        <v>295000</v>
+        <v>300000</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="21" t="inlineStr">
@@ -13549,10 +13549,10 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>1250</v>
+        <v>75</v>
       </c>
       <c r="I94" s="21" t="n">
-        <v>23750</v>
+        <v>24925</v>
       </c>
       <c r="J94" s="1" t="n"/>
       <c r="K94" s="1" t="n"/>
@@ -13618,7 +13618,7 @@
       </c>
       <c r="D96" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E96" s="2" t="n"/>
@@ -13639,7 +13639,7 @@
       </c>
       <c r="I96" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J96" s="1" t="n"/>
@@ -13722,29 +13722,29 @@
     </row>
     <row r="98" ht="20.25" customHeight="1">
       <c r="A98" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B98" s="21" t="n">
         <v>500000</v>
       </c>
       <c r="C98" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D98" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G98" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="H98" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I98" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J98" s="1" t="n"/>
       <c r="K98" s="1" t="n"/>
@@ -13772,23 +13772,23 @@
         <v>500000</v>
       </c>
       <c r="C99" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D99" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="21" t="n">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="G99" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="H99" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I99" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J99" s="1" t="n"/>
       <c r="K99" s="1" t="n"/>
@@ -13821,10 +13821,10 @@
         <v>1000000</v>
       </c>
       <c r="H100" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I100" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J100" s="1" t="n"/>
       <c r="K100" s="1" t="n"/>
@@ -13908,10 +13908,10 @@
       </c>
       <c r="B103" s="21" t="n"/>
       <c r="C103" s="21" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D103" s="21" t="n">
-        <v>47500</v>
+        <v>50000</v>
       </c>
       <c r="E103" s="2" t="n"/>
       <c r="F103" s="21" t="inlineStr">
@@ -13920,10 +13920,10 @@
         </is>
       </c>
       <c r="H103" t="n">
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="I103" s="21" t="n">
-        <v>146250</v>
+        <v>150000</v>
       </c>
       <c r="J103" s="1" t="n"/>
       <c r="K103" s="1" t="n"/>
@@ -13989,7 +13989,7 @@
       </c>
       <c r="D105" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E105" s="2" t="n"/>
@@ -14010,7 +14010,7 @@
       </c>
       <c r="I105" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J105" s="1" t="n"/>
@@ -14093,29 +14093,29 @@
     </row>
     <row r="107" ht="20.25" customHeight="1">
       <c r="A107" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B107" s="21" t="n">
         <v>500000</v>
       </c>
       <c r="C107" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D107" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E107" s="2" t="n"/>
       <c r="F107" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G107" s="21" t="n">
         <v>500000</v>
       </c>
       <c r="H107" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I107" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J107" s="1" t="n"/>
       <c r="K107" s="1" t="n"/>
@@ -14142,16 +14142,16 @@
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="2" t="n"/>
       <c r="F108" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G108" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="H108" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I108" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J108" s="1" t="n"/>
       <c r="K108" s="1" t="n"/>
@@ -14184,10 +14184,10 @@
         <v>2000000</v>
       </c>
       <c r="H109" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I109" s="21" t="n">
-        <v>98750</v>
+        <v>100000</v>
       </c>
       <c r="J109" s="1" t="n"/>
       <c r="K109" s="1" t="n"/>
@@ -14271,10 +14271,10 @@
       </c>
       <c r="B112" s="21" t="n"/>
       <c r="C112" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D112" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E112" s="2" t="n"/>
       <c r="F112" s="21" t="inlineStr">
@@ -14283,10 +14283,10 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="I112" s="21" t="n">
-        <v>171250</v>
+        <v>175000</v>
       </c>
       <c r="J112" s="1" t="n"/>
       <c r="K112" s="1" t="n"/>
@@ -14352,7 +14352,7 @@
       </c>
       <c r="D114" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E114" s="2" t="n"/>
@@ -14373,7 +14373,7 @@
       </c>
       <c r="I114" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J114" s="1" t="n"/>
@@ -14456,29 +14456,29 @@
     </row>
     <row r="116" ht="20.25" customHeight="1">
       <c r="A116" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B116" s="21" t="n">
         <v>500000</v>
       </c>
       <c r="C116" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D116" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E116" s="2" t="n"/>
       <c r="F116" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G116" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="H116" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I116" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J116" s="1" t="n"/>
       <c r="K116" s="1" t="n"/>
@@ -14500,16 +14500,16 @@
     </row>
     <row r="117" ht="20.25" customHeight="1">
       <c r="A117" s="21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="B117" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="C117" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D117" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E117" s="2" t="n"/>
       <c r="F117" s="21" t="n">
@@ -14519,10 +14519,10 @@
         <v>2000000</v>
       </c>
       <c r="H117" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I117" s="21" t="n">
-        <v>98750</v>
+        <v>100000</v>
       </c>
       <c r="J117" s="1" t="n"/>
       <c r="K117" s="1" t="n"/>
@@ -14550,10 +14550,10 @@
         <v>500000</v>
       </c>
       <c r="C118" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D118" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E118" s="2" t="n"/>
       <c r="F118" s="21" t="n"/>
@@ -14586,10 +14586,10 @@
         <v>500000</v>
       </c>
       <c r="C119" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D119" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E119" s="2" t="n"/>
       <c r="F119" s="21" t="n"/>
@@ -14650,10 +14650,10 @@
       </c>
       <c r="B121" s="21" t="n"/>
       <c r="C121" s="21" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="D121" s="21" t="n">
-        <v>120000</v>
+        <v>125000</v>
       </c>
       <c r="E121" s="2" t="n"/>
       <c r="F121" s="21" t="inlineStr">
@@ -14662,10 +14662,10 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I121" s="21" t="n">
-        <v>147500</v>
+        <v>150000</v>
       </c>
       <c r="J121" s="1" t="n"/>
       <c r="K121" s="1" t="n"/>
@@ -14731,7 +14731,7 @@
       </c>
       <c r="D123" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E123" s="2" t="n"/>
@@ -14752,7 +14752,7 @@
       </c>
       <c r="I123" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J123" s="1" t="n"/>
@@ -14839,29 +14839,29 @@
     </row>
     <row r="125" ht="20.25" customHeight="1">
       <c r="A125" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B125" s="21" t="n">
         <v>500000</v>
       </c>
       <c r="C125" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D125" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E125" s="2" t="n"/>
       <c r="F125" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G125" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="H125" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I125" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J125" s="1" t="n"/>
       <c r="K125" s="1" t="n"/>
@@ -14889,10 +14889,10 @@
         <v>2000000</v>
       </c>
       <c r="C126" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D126" s="21" t="n">
-        <v>98750</v>
+        <v>100000</v>
       </c>
       <c r="E126" s="2" t="n"/>
       <c r="F126" s="21" t="n">
@@ -14902,10 +14902,10 @@
         <v>500000</v>
       </c>
       <c r="H126" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I126" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J126" s="1" t="n"/>
       <c r="K126" s="1" t="n"/>
@@ -14938,10 +14938,10 @@
         <v>500000</v>
       </c>
       <c r="H127" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I127" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J127" s="1" t="n"/>
       <c r="K127" s="1" t="n"/>
@@ -14968,16 +14968,16 @@
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="2" t="n"/>
       <c r="F128" s="21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G128" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="H128" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I128" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J128" s="1" t="n"/>
       <c r="K128" s="1" t="n"/>
@@ -15010,10 +15010,10 @@
         <v>500000</v>
       </c>
       <c r="H129" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I129" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J129" s="1" t="n"/>
       <c r="K129" s="1" t="n"/>
@@ -15041,10 +15041,10 @@
       </c>
       <c r="B130" s="21" t="n"/>
       <c r="C130" s="21" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D130" s="21" t="n">
-        <v>122500</v>
+        <v>125000</v>
       </c>
       <c r="E130" s="2" t="n"/>
       <c r="F130" s="21" t="inlineStr">
@@ -15053,10 +15053,10 @@
         </is>
       </c>
       <c r="H130" t="n">
-        <v>6250</v>
+        <v>0</v>
       </c>
       <c r="I130" s="21" t="n">
-        <v>168750</v>
+        <v>175000</v>
       </c>
       <c r="J130" s="1" t="n"/>
       <c r="K130" s="1" t="n"/>
@@ -15122,7 +15122,7 @@
       </c>
       <c r="D132" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E132" s="2" t="n"/>
@@ -15143,7 +15143,7 @@
       </c>
       <c r="I132" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J132" s="1" t="n"/>
@@ -15226,29 +15226,29 @@
     </row>
     <row r="134" ht="20.25" customHeight="1">
       <c r="A134" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B134" s="21" t="n">
         <v>500000</v>
       </c>
       <c r="C134" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D134" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E134" s="2" t="n"/>
       <c r="F134" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G134" s="21" t="n">
         <v>500000</v>
       </c>
       <c r="H134" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I134" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J134" s="1" t="n"/>
       <c r="K134" s="1" t="n"/>
@@ -15276,10 +15276,10 @@
         <v>1000000</v>
       </c>
       <c r="C135" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D135" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E135" s="2" t="n"/>
       <c r="F135" s="21" t="n"/>
@@ -15396,10 +15396,10 @@
       </c>
       <c r="B139" s="21" t="n"/>
       <c r="C139" s="21" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D139" s="21" t="n">
-        <v>72500</v>
+        <v>75000</v>
       </c>
       <c r="E139" s="2" t="n"/>
       <c r="F139" s="21" t="inlineStr">
@@ -15408,10 +15408,10 @@
         </is>
       </c>
       <c r="H139" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I139" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J139" s="1" t="n"/>
       <c r="K139" s="1" t="n"/>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="D141" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E141" s="2" t="n"/>
@@ -15498,7 +15498,7 @@
       </c>
       <c r="I141" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J141" s="1" t="n"/>
@@ -15581,16 +15581,16 @@
     </row>
     <row r="143" ht="20.25" customHeight="1">
       <c r="A143" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B143" s="21" t="n">
         <v>500000</v>
       </c>
       <c r="C143" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D143" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E143" s="2" t="n"/>
       <c r="F143" s="21" t="n">
@@ -15600,10 +15600,10 @@
         <v>1000000</v>
       </c>
       <c r="H143" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I143" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J143" s="1" t="n"/>
       <c r="K143" s="1" t="n"/>
@@ -15631,23 +15631,23 @@
         <v>500000</v>
       </c>
       <c r="C144" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D144" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E144" s="2" t="n"/>
       <c r="F144" s="21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G144" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="H144" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I144" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J144" s="1" t="n"/>
       <c r="K144" s="1" t="n"/>
@@ -15675,10 +15675,10 @@
         <v>500000</v>
       </c>
       <c r="C145" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D145" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E145" s="2" t="n"/>
       <c r="F145" s="21" t="n"/>
@@ -15711,10 +15711,10 @@
         <v>1000000</v>
       </c>
       <c r="C146" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D146" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E146" s="2" t="n"/>
       <c r="F146" s="21" t="n"/>
@@ -15775,10 +15775,10 @@
       </c>
       <c r="B148" s="21" t="n"/>
       <c r="C148" s="21" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="D148" s="21" t="n">
-        <v>120000</v>
+        <v>125000</v>
       </c>
       <c r="E148" s="2" t="n"/>
       <c r="F148" s="21" t="inlineStr">
@@ -15787,10 +15787,10 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I148" s="21" t="n">
-        <v>97500</v>
+        <v>100000</v>
       </c>
       <c r="J148" s="1" t="n"/>
       <c r="K148" s="1" t="n"/>
@@ -15856,7 +15856,7 @@
       </c>
       <c r="D150" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E150" s="2" t="n"/>
@@ -15877,7 +15877,7 @@
       </c>
       <c r="I150" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J150" s="21" t="n"/>
@@ -15966,23 +15966,23 @@
         <v>500000</v>
       </c>
       <c r="C152" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D152" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E152" s="21" t="n"/>
       <c r="F152" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G152" s="21" t="n">
         <v>500000</v>
       </c>
       <c r="H152" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I152" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J152" s="1" t="n"/>
       <c r="K152" s="21" t="n"/>
@@ -16015,10 +16015,10 @@
         <v>500000</v>
       </c>
       <c r="H153" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I153" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J153" s="1" t="n"/>
       <c r="K153" s="3" t="n"/>
@@ -16051,10 +16051,10 @@
         <v>1000000</v>
       </c>
       <c r="H154" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I154" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J154" s="1" t="n"/>
       <c r="K154" s="1" t="n"/>
@@ -16138,10 +16138,10 @@
       </c>
       <c r="B157" s="21" t="n"/>
       <c r="C157" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D157" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E157" s="2" t="n"/>
       <c r="F157" s="21" t="inlineStr">
@@ -16150,10 +16150,10 @@
         </is>
       </c>
       <c r="H157" t="n">
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="I157" s="21" t="n">
-        <v>96250</v>
+        <v>100000</v>
       </c>
       <c r="J157" s="1" t="n"/>
       <c r="K157" s="1" t="n"/>
@@ -16219,7 +16219,7 @@
       </c>
       <c r="D159" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E159" s="2" t="n"/>
@@ -16240,7 +16240,7 @@
       </c>
       <c r="I159" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J159" s="1" t="n"/>
@@ -16323,29 +16323,29 @@
     </row>
     <row r="161" ht="20.25" customHeight="1">
       <c r="A161" s="21" t="n">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="B161" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="C161" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D161" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E161" s="2" t="n"/>
       <c r="F161" s="21" t="n">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="G161" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="H161" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I161" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J161" s="1" t="n"/>
       <c r="K161" s="1" t="n"/>
@@ -16485,10 +16485,10 @@
       </c>
       <c r="B166" s="21" t="n"/>
       <c r="C166" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D166" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E166" s="2" t="n"/>
       <c r="F166" s="21" t="inlineStr">
@@ -16497,10 +16497,10 @@
         </is>
       </c>
       <c r="H166" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I166" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J166" s="1" t="n"/>
       <c r="K166" s="1" t="n"/>
@@ -16566,7 +16566,7 @@
       </c>
       <c r="D168" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E168" s="2" t="n"/>
@@ -16587,7 +16587,7 @@
       </c>
       <c r="I168" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J168" s="1" t="n"/>
@@ -16670,16 +16670,16 @@
     </row>
     <row r="170" ht="20.25" customHeight="1">
       <c r="A170" s="21" t="n">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="B170" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="C170" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D170" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E170" s="2" t="inlineStr">
         <is>
@@ -16687,16 +16687,16 @@
         </is>
       </c>
       <c r="F170" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G170" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="H170" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I170" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J170" s="1" t="n"/>
       <c r="K170" s="1" t="n"/>
@@ -16724,10 +16724,10 @@
         <v>1000000</v>
       </c>
       <c r="C171" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D171" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E171" s="2" t="n"/>
       <c r="F171" s="21" t="n">
@@ -16737,10 +16737,10 @@
         <v>500000</v>
       </c>
       <c r="H171" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I171" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J171" s="1" t="n"/>
       <c r="K171" s="1" t="n"/>
@@ -16768,10 +16768,10 @@
         <v>1000000</v>
       </c>
       <c r="C172" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D172" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E172" s="2" t="n"/>
       <c r="F172" s="21" t="n"/>
@@ -16860,10 +16860,10 @@
       </c>
       <c r="B175" s="21" t="n"/>
       <c r="C175" s="21" t="n">
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="D175" s="21" t="n">
-        <v>146250</v>
+        <v>150000</v>
       </c>
       <c r="E175" s="2" t="n"/>
       <c r="F175" s="21" t="inlineStr">
@@ -16872,10 +16872,10 @@
         </is>
       </c>
       <c r="H175" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I175" s="21" t="n">
-        <v>72500</v>
+        <v>75000</v>
       </c>
       <c r="J175" s="1" t="n"/>
       <c r="K175" s="1" t="n"/>
@@ -16941,7 +16941,7 @@
       </c>
       <c r="D177" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E177" s="2" t="n"/>
@@ -16962,7 +16962,7 @@
       </c>
       <c r="I177" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J177" s="1" t="n"/>
@@ -17051,23 +17051,23 @@
         <v>2000000</v>
       </c>
       <c r="C179" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D179" s="21" t="n">
-        <v>98750</v>
+        <v>100000</v>
       </c>
       <c r="E179" s="2" t="n"/>
       <c r="F179" s="21" t="n">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="G179" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="H179" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I179" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J179" s="1" t="n"/>
       <c r="K179" s="1" t="n"/>
@@ -17095,10 +17095,10 @@
         <v>500000</v>
       </c>
       <c r="C180" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D180" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E180" s="2" t="n"/>
       <c r="F180" s="21" t="n"/>
@@ -17215,10 +17215,10 @@
       </c>
       <c r="B184" s="21" t="n"/>
       <c r="C184" s="21" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D184" s="21" t="n">
-        <v>122500</v>
+        <v>125000</v>
       </c>
       <c r="E184" s="2" t="n"/>
       <c r="F184" s="21" t="inlineStr">
@@ -17227,10 +17227,10 @@
         </is>
       </c>
       <c r="H184" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I184" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J184" s="1" t="n"/>
       <c r="K184" s="1" t="n"/>
@@ -17296,7 +17296,7 @@
       </c>
       <c r="D186" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E186" s="2" t="n"/>
@@ -17317,7 +17317,7 @@
       </c>
       <c r="I186" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J186" s="1" t="n"/>
@@ -17406,23 +17406,23 @@
         <v>1000000</v>
       </c>
       <c r="C188" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D188" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E188" s="2" t="n"/>
       <c r="F188" s="21" t="n">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="G188" s="21" t="n">
         <v>500000</v>
       </c>
       <c r="H188" s="21" t="n">
-        <v>1250</v>
+        <v>75</v>
       </c>
       <c r="I188" s="21" t="n">
-        <v>23750</v>
+        <v>24925</v>
       </c>
       <c r="J188" s="1" t="n"/>
       <c r="K188" s="1" t="n"/>
@@ -17444,16 +17444,16 @@
     </row>
     <row r="189" ht="20.25" customHeight="1">
       <c r="A189" s="21" t="n">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="B189" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="C189" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D189" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E189" s="2" t="n"/>
       <c r="F189" s="21" t="n"/>
@@ -17570,10 +17570,10 @@
       </c>
       <c r="B193" s="21" t="n"/>
       <c r="C193" s="21" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D193" s="21" t="n">
-        <v>97500</v>
+        <v>100000</v>
       </c>
       <c r="E193" s="2" t="n"/>
       <c r="F193" s="21" t="inlineStr">
@@ -17582,10 +17582,10 @@
         </is>
       </c>
       <c r="H193" t="n">
-        <v>1250</v>
+        <v>75</v>
       </c>
       <c r="I193" s="21" t="n">
-        <v>23750</v>
+        <v>24925</v>
       </c>
       <c r="J193" s="1" t="n"/>
       <c r="K193" s="1" t="n"/>
@@ -17651,7 +17651,7 @@
       </c>
       <c r="D195" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E195" s="2" t="n"/>
@@ -17672,7 +17672,7 @@
       </c>
       <c r="I195" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J195" s="1" t="n"/>
@@ -17755,29 +17755,29 @@
     </row>
     <row r="197" ht="20.25" customHeight="1">
       <c r="A197" s="21" t="n">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="B197" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="C197" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D197" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E197" s="2" t="n"/>
       <c r="F197" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G197" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="H197" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I197" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J197" s="1" t="n"/>
       <c r="K197" s="1" t="n"/>
@@ -17805,10 +17805,10 @@
         <v>1000000</v>
       </c>
       <c r="C198" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D198" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E198" s="2" t="n"/>
       <c r="F198" s="21" t="n"/>
@@ -17925,10 +17925,10 @@
       </c>
       <c r="B202" s="21" t="n"/>
       <c r="C202" s="21" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D202" s="21" t="n">
-        <v>97500</v>
+        <v>100000</v>
       </c>
       <c r="E202" s="2" t="n"/>
       <c r="F202" s="21" t="inlineStr">
@@ -17937,10 +17937,10 @@
         </is>
       </c>
       <c r="H202" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I202" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J202" s="1" t="n"/>
       <c r="K202" s="1" t="n"/>
@@ -18006,7 +18006,7 @@
       </c>
       <c r="D204" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="F204" s="14" t="inlineStr">
@@ -18026,7 +18026,7 @@
       </c>
       <c r="I204" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J204" s="1" t="n"/>
@@ -18108,28 +18108,28 @@
     </row>
     <row r="206" ht="20.25" customHeight="1">
       <c r="A206" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B206" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="C206" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D206" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="F206" s="21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G206" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="H206" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I206" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J206" s="1" t="n"/>
       <c r="K206" s="1" t="n"/>
@@ -18151,16 +18151,16 @@
     </row>
     <row r="207" ht="20.25" customHeight="1">
       <c r="A207" s="21" t="n">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="B207" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="C207" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D207" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="F207" s="21" t="n">
         <v>10</v>
@@ -18169,10 +18169,10 @@
         <v>1000000</v>
       </c>
       <c r="H207" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I207" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J207" s="1" t="n"/>
       <c r="K207" s="1" t="n"/>
@@ -18284,10 +18284,10 @@
       </c>
       <c r="B211" s="21" t="n"/>
       <c r="C211" s="21" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D211" s="21" t="n">
-        <v>97500</v>
+        <v>100000</v>
       </c>
       <c r="E211" s="2" t="n"/>
       <c r="F211" s="21" t="inlineStr">
@@ -18296,10 +18296,10 @@
         </is>
       </c>
       <c r="H211" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I211" s="21" t="n">
-        <v>97500</v>
+        <v>100000</v>
       </c>
       <c r="J211" s="1" t="n"/>
       <c r="K211" s="1" t="n"/>
@@ -18370,7 +18370,7 @@
       </c>
       <c r="I213" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J213" s="1" t="n"/>
@@ -18448,10 +18448,10 @@
         <v>500000</v>
       </c>
       <c r="H215" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I215" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J215" s="1" t="n"/>
       <c r="K215" s="1" t="n"/>
@@ -18484,10 +18484,10 @@
         <v>500000</v>
       </c>
       <c r="H216" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I216" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J216" s="1" t="n"/>
       <c r="K216" s="1" t="n"/>
@@ -18603,10 +18603,10 @@
         </is>
       </c>
       <c r="H220" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I220" s="21" t="n">
-        <v>47500</v>
+        <v>50000</v>
       </c>
       <c r="J220" s="1" t="n"/>
       <c r="K220" s="1" t="n"/>
@@ -18672,7 +18672,7 @@
       </c>
       <c r="D222" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E222" s="2" t="n"/>
@@ -18693,7 +18693,7 @@
       </c>
       <c r="I222" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J222" s="1" t="n"/>
@@ -18782,10 +18782,10 @@
         <v>500000</v>
       </c>
       <c r="C224" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D224" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E224" s="2" t="n"/>
       <c r="F224" s="21" t="n">
@@ -18795,10 +18795,10 @@
         <v>500000</v>
       </c>
       <c r="H224" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I224" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J224" s="1" t="n"/>
       <c r="K224" s="1" t="n"/>
@@ -18938,10 +18938,10 @@
       </c>
       <c r="B229" s="21" t="n"/>
       <c r="C229" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D229" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E229" s="2" t="n"/>
       <c r="F229" s="21" t="inlineStr">
@@ -18950,10 +18950,10 @@
         </is>
       </c>
       <c r="H229" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I229" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J229" s="1" t="n"/>
       <c r="K229" s="1" t="n"/>
@@ -19019,7 +19019,7 @@
       </c>
       <c r="D231" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E231" s="2" t="n"/>
@@ -19040,7 +19040,7 @@
       </c>
       <c r="I231" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J231" s="1" t="n"/>
@@ -19129,10 +19129,10 @@
         <v>500000</v>
       </c>
       <c r="C233" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D233" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E233" s="2" t="n"/>
       <c r="F233" s="21" t="n">
@@ -19142,10 +19142,10 @@
         <v>2000000</v>
       </c>
       <c r="H233" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I233" s="21" t="n">
-        <v>98750</v>
+        <v>100000</v>
       </c>
       <c r="J233" s="1" t="n"/>
       <c r="K233" s="1" t="n"/>
@@ -19285,10 +19285,10 @@
       </c>
       <c r="B238" s="21" t="n"/>
       <c r="C238" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D238" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E238" s="2" t="n"/>
       <c r="F238" s="21" t="inlineStr">
@@ -19297,10 +19297,10 @@
         </is>
       </c>
       <c r="H238" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I238" s="21" t="n">
-        <v>98750</v>
+        <v>100000</v>
       </c>
       <c r="J238" s="1" t="n"/>
       <c r="K238" s="1" t="n"/>
@@ -19366,7 +19366,7 @@
       </c>
       <c r="D240" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E240" s="2" t="n"/>
@@ -19387,7 +19387,7 @@
       </c>
       <c r="I240" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J240" s="1" t="n"/>
@@ -19476,10 +19476,10 @@
         <v>500000</v>
       </c>
       <c r="C242" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D242" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E242" s="2" t="n"/>
       <c r="F242" s="21" t="n">
@@ -19489,10 +19489,10 @@
         <v>1000000</v>
       </c>
       <c r="H242" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I242" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J242" s="1" t="n"/>
       <c r="K242" s="1" t="n"/>
@@ -19520,10 +19520,10 @@
         <v>500000</v>
       </c>
       <c r="C243" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D243" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E243" s="2" t="n"/>
       <c r="F243" s="21" t="n">
@@ -19533,10 +19533,10 @@
         <v>2000000</v>
       </c>
       <c r="H243" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I243" s="21" t="n">
-        <v>98750</v>
+        <v>100000</v>
       </c>
       <c r="J243" s="1" t="n"/>
       <c r="K243" s="1" t="n"/>
@@ -19569,10 +19569,10 @@
         <v>500000</v>
       </c>
       <c r="H244" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I244" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J244" s="1" t="n"/>
       <c r="K244" s="1" t="n"/>
@@ -19605,10 +19605,10 @@
         <v>500000</v>
       </c>
       <c r="H245" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I245" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J245" s="1" t="n"/>
       <c r="K245" s="1" t="n"/>
@@ -19635,16 +19635,16 @@
       <c r="D246" s="21" t="n"/>
       <c r="E246" s="2" t="n"/>
       <c r="F246" s="21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G246" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="H246" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I246" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J246" s="1" t="n"/>
       <c r="K246" s="1" t="n"/>
@@ -19672,10 +19672,10 @@
       </c>
       <c r="B247" s="21" t="n"/>
       <c r="C247" s="21" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D247" s="21" t="n">
-        <v>47500</v>
+        <v>50000</v>
       </c>
       <c r="E247" s="2" t="n"/>
       <c r="F247" s="21" t="inlineStr">
@@ -19684,10 +19684,10 @@
         </is>
       </c>
       <c r="H247" t="n">
-        <v>6250</v>
+        <v>0</v>
       </c>
       <c r="I247" s="21" t="n">
-        <v>243750</v>
+        <v>250000</v>
       </c>
       <c r="J247" s="1" t="n"/>
       <c r="K247" s="1" t="n"/>
@@ -19753,7 +19753,7 @@
       </c>
       <c r="D249" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E249" s="2" t="n"/>
@@ -19774,7 +19774,7 @@
       </c>
       <c r="I249" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J249" s="1" t="n"/>
@@ -19863,10 +19863,10 @@
         <v>1000000</v>
       </c>
       <c r="C251" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D251" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E251" s="2" t="n"/>
       <c r="F251" s="21" t="n">
@@ -19876,10 +19876,10 @@
         <v>500000</v>
       </c>
       <c r="H251" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I251" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J251" s="1" t="n"/>
       <c r="K251" s="1" t="n"/>
@@ -19901,16 +19901,16 @@
     </row>
     <row r="252" ht="20.25" customHeight="1">
       <c r="A252" s="21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="B252" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="C252" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D252" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E252" s="2" t="n"/>
       <c r="F252" s="21" t="n"/>
@@ -20027,10 +20027,10 @@
       </c>
       <c r="B256" s="21" t="n"/>
       <c r="C256" s="21" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D256" s="21" t="n">
-        <v>97500</v>
+        <v>100000</v>
       </c>
       <c r="E256" s="2" t="n"/>
       <c r="F256" s="21" t="inlineStr">
@@ -20039,10 +20039,10 @@
         </is>
       </c>
       <c r="H256" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I256" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J256" s="1" t="n"/>
       <c r="K256" s="1" t="n"/>
@@ -20108,7 +20108,7 @@
       </c>
       <c r="D258" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E258" s="2" t="n"/>
@@ -20129,7 +20129,7 @@
       </c>
       <c r="I258" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J258" s="1" t="n"/>
@@ -20212,16 +20212,16 @@
     </row>
     <row r="260" ht="20.25" customHeight="1">
       <c r="A260" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B260" s="21" t="n">
         <v>500000</v>
       </c>
       <c r="C260" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D260" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E260" s="2" t="n"/>
       <c r="F260" s="21" t="n">
@@ -20231,10 +20231,10 @@
         <v>500000</v>
       </c>
       <c r="H260" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I260" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J260" s="1" t="n"/>
       <c r="K260" s="1" t="n"/>
@@ -20262,10 +20262,10 @@
         <v>1000000</v>
       </c>
       <c r="C261" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D261" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E261" s="2" t="n"/>
       <c r="F261" s="21" t="n">
@@ -20275,10 +20275,10 @@
         <v>500000</v>
       </c>
       <c r="H261" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I261" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J261" s="1" t="n"/>
       <c r="K261" s="1" t="n"/>
@@ -20390,10 +20390,10 @@
       </c>
       <c r="B265" s="21" t="n"/>
       <c r="C265" s="21" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D265" s="21" t="n">
-        <v>72500</v>
+        <v>75000</v>
       </c>
       <c r="E265" s="2" t="n"/>
       <c r="F265" s="21" t="inlineStr">
@@ -20402,10 +20402,10 @@
         </is>
       </c>
       <c r="H265" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I265" s="21" t="n">
-        <v>47500</v>
+        <v>50000</v>
       </c>
       <c r="J265" s="1" t="n"/>
       <c r="K265" s="1" t="n"/>
@@ -20471,7 +20471,7 @@
       </c>
       <c r="D267" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E267" s="2" t="n"/>
@@ -20492,7 +20492,7 @@
       </c>
       <c r="I267" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J267" s="1" t="n"/>
@@ -20581,10 +20581,10 @@
         <v>500000</v>
       </c>
       <c r="C269" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D269" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E269" s="2" t="n"/>
       <c r="F269" s="21" t="n">
@@ -20594,10 +20594,10 @@
         <v>500000</v>
       </c>
       <c r="H269" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I269" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J269" s="1" t="n"/>
       <c r="K269" s="1" t="n"/>
@@ -20737,10 +20737,10 @@
       </c>
       <c r="B274" s="21" t="n"/>
       <c r="C274" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D274" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E274" s="2" t="n"/>
       <c r="F274" s="21" t="inlineStr">
@@ -20749,10 +20749,10 @@
         </is>
       </c>
       <c r="H274" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I274" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J274" s="1" t="n"/>
       <c r="K274" s="1" t="n"/>
@@ -20818,7 +20818,7 @@
       </c>
       <c r="D276" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E276" s="2" t="n"/>
@@ -20839,7 +20839,7 @@
       </c>
       <c r="I276" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J276" s="1" t="n"/>
@@ -20928,10 +20928,10 @@
         <v>1000000</v>
       </c>
       <c r="C278" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D278" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E278" s="2" t="n"/>
       <c r="F278" s="21" t="n">
@@ -20941,10 +20941,10 @@
         <v>1000000</v>
       </c>
       <c r="H278" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I278" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J278" s="1" t="n"/>
       <c r="K278" s="1" t="n"/>
@@ -20972,10 +20972,10 @@
         <v>1000000</v>
       </c>
       <c r="C279" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D279" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E279" s="2" t="n"/>
       <c r="F279" s="21" t="n">
@@ -20985,10 +20985,10 @@
         <v>500000</v>
       </c>
       <c r="H279" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I279" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J279" s="1" t="n"/>
       <c r="K279" s="1" t="n"/>
@@ -21021,10 +21021,10 @@
         <v>500000</v>
       </c>
       <c r="H280" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I280" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J280" s="1" t="n"/>
       <c r="K280" s="1" t="n"/>
@@ -21057,10 +21057,10 @@
         <v>500000</v>
       </c>
       <c r="H281" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I281" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J281" s="1" t="n"/>
       <c r="K281" s="1" t="n"/>
@@ -21093,10 +21093,10 @@
         <v>1000000</v>
       </c>
       <c r="H282" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I282" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J282" s="1" t="n"/>
       <c r="K282" s="1" t="n"/>
@@ -21129,10 +21129,10 @@
         <v>500000</v>
       </c>
       <c r="H283" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I283" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J283" s="1" t="n"/>
       <c r="K283" s="1" t="n"/>
@@ -21160,10 +21160,10 @@
       </c>
       <c r="B284" s="21" t="n"/>
       <c r="C284" s="21" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D284" s="21" t="n">
-        <v>97500</v>
+        <v>100000</v>
       </c>
       <c r="E284" s="2" t="n"/>
       <c r="F284" s="21" t="inlineStr">
@@ -21172,10 +21172,10 @@
         </is>
       </c>
       <c r="H284" t="n">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="I284" s="21" t="n">
-        <v>192500</v>
+        <v>200000</v>
       </c>
       <c r="J284" s="1" t="n"/>
       <c r="K284" s="1" t="n"/>
@@ -21241,7 +21241,7 @@
       </c>
       <c r="D286" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E286" s="2" t="n"/>
@@ -21262,7 +21262,7 @@
       </c>
       <c r="I286" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J286" s="1" t="n"/>
@@ -21351,10 +21351,10 @@
         <v>2000000</v>
       </c>
       <c r="C288" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D288" s="21" t="n">
-        <v>98750</v>
+        <v>100000</v>
       </c>
       <c r="E288" s="2" t="n"/>
       <c r="F288" s="21" t="n">
@@ -21364,10 +21364,10 @@
         <v>1000000</v>
       </c>
       <c r="H288" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I288" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J288" s="1" t="n"/>
       <c r="K288" s="1" t="n"/>
@@ -21395,10 +21395,10 @@
         <v>500000</v>
       </c>
       <c r="C289" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D289" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E289" s="2" t="n"/>
       <c r="F289" s="21" t="n">
@@ -21408,10 +21408,10 @@
         <v>500000</v>
       </c>
       <c r="H289" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I289" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J289" s="1" t="n"/>
       <c r="K289" s="1" t="n"/>
@@ -21444,10 +21444,10 @@
         <v>500000</v>
       </c>
       <c r="H290" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I290" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J290" s="1" t="n"/>
       <c r="K290" s="1" t="n"/>
@@ -21480,10 +21480,10 @@
         <v>500000</v>
       </c>
       <c r="H291" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I291" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J291" s="1" t="n"/>
       <c r="K291" s="1" t="n"/>
@@ -21539,10 +21539,10 @@
       </c>
       <c r="B293" s="14" t="n"/>
       <c r="C293" s="14" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D293" s="21" t="n">
-        <v>122500</v>
+        <v>125000</v>
       </c>
       <c r="E293" s="2" t="n"/>
       <c r="F293" s="21" t="inlineStr">
@@ -21551,10 +21551,10 @@
         </is>
       </c>
       <c r="H293" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="I293" s="21" t="n">
-        <v>120000</v>
+        <v>125000</v>
       </c>
       <c r="J293" s="1" t="n"/>
       <c r="K293" s="1" t="n"/>
@@ -21620,7 +21620,7 @@
       </c>
       <c r="D295" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E295" s="2" t="n"/>
@@ -21641,7 +21641,7 @@
       </c>
       <c r="I295" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J295" s="1" t="n"/>
@@ -21730,10 +21730,10 @@
         <v>2000000</v>
       </c>
       <c r="C297" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D297" s="21" t="n">
-        <v>98750</v>
+        <v>100000</v>
       </c>
       <c r="E297" s="2" t="n"/>
       <c r="F297" s="21" t="n">
@@ -21743,10 +21743,10 @@
         <v>2000000</v>
       </c>
       <c r="H297" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I297" s="21" t="n">
-        <v>98750</v>
+        <v>100000</v>
       </c>
       <c r="J297" s="1" t="n"/>
       <c r="K297" s="1" t="n"/>
@@ -21774,10 +21774,10 @@
         <v>500000</v>
       </c>
       <c r="C298" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D298" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E298" s="2" t="n"/>
       <c r="F298" s="21" t="n">
@@ -21787,10 +21787,10 @@
         <v>1000000</v>
       </c>
       <c r="H298" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I298" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J298" s="1" t="n"/>
       <c r="K298" s="1" t="n"/>
@@ -21812,16 +21812,16 @@
     </row>
     <row r="299" ht="20.25" customHeight="1">
       <c r="A299" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B299" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="C299" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D299" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E299" s="2" t="n"/>
       <c r="F299" s="21" t="n"/>
@@ -21910,10 +21910,10 @@
       </c>
       <c r="B302" s="21" t="n"/>
       <c r="C302" s="21" t="n">
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="D302" s="21" t="n">
-        <v>171250</v>
+        <v>175000</v>
       </c>
       <c r="E302" s="2" t="n"/>
       <c r="F302" s="21" t="inlineStr">
@@ -21922,10 +21922,10 @@
         </is>
       </c>
       <c r="H302" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I302" s="21" t="n">
-        <v>147500</v>
+        <v>150000</v>
       </c>
       <c r="J302" s="1" t="n"/>
       <c r="K302" s="1" t="n"/>
@@ -21991,7 +21991,7 @@
       </c>
       <c r="D304" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E304" s="2" t="n"/>
@@ -22012,7 +22012,7 @@
       </c>
       <c r="I304" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J304" s="1" t="n"/>
@@ -22101,10 +22101,10 @@
         <v>1000000</v>
       </c>
       <c r="C306" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D306" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E306" s="2" t="n"/>
       <c r="F306" s="21" t="n">
@@ -22114,10 +22114,10 @@
         <v>1000000</v>
       </c>
       <c r="H306" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I306" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J306" s="21">
         <f>VLOOKUP(G306&amp;"|"&amp;H306,$Q$3:$R$16,2,FALSE)</f>
@@ -22148,10 +22148,10 @@
         <v>1000000</v>
       </c>
       <c r="C307" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D307" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E307" s="2" t="n"/>
       <c r="F307" s="21" t="n"/>
@@ -22268,10 +22268,10 @@
       </c>
       <c r="B311" s="21" t="n"/>
       <c r="C311" s="21" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D311" s="21" t="n">
-        <v>97500</v>
+        <v>100000</v>
       </c>
       <c r="E311" s="2" t="n"/>
       <c r="F311" s="21" t="inlineStr">
@@ -22280,10 +22280,10 @@
         </is>
       </c>
       <c r="H311" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I311" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J311" s="1" t="n"/>
       <c r="K311" s="1" t="n"/>
@@ -22349,7 +22349,7 @@
       </c>
       <c r="D313" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E313" s="2" t="n"/>
@@ -22370,7 +22370,7 @@
       </c>
       <c r="I313" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J313" s="1" t="n"/>
@@ -22459,23 +22459,23 @@
         <v>500000</v>
       </c>
       <c r="C315" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D315" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E315" s="2" t="n"/>
       <c r="F315" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G315" s="21" t="n">
         <v>500000</v>
       </c>
       <c r="H315" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I315" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J315" s="1" t="n"/>
       <c r="K315" s="1" t="n"/>
@@ -22503,10 +22503,10 @@
         <v>500000</v>
       </c>
       <c r="C316" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D316" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E316" s="2" t="n"/>
       <c r="F316" s="21" t="n"/>
@@ -22623,10 +22623,10 @@
       </c>
       <c r="B320" s="21" t="n"/>
       <c r="C320" s="21" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D320" s="21" t="n">
-        <v>47500</v>
+        <v>50000</v>
       </c>
       <c r="E320" s="2" t="n"/>
       <c r="F320" s="21" t="inlineStr">
@@ -22635,10 +22635,10 @@
         </is>
       </c>
       <c r="H320" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I320" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J320" s="1" t="n"/>
       <c r="K320" s="1" t="n"/>
@@ -22704,7 +22704,7 @@
       </c>
       <c r="D322" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E322" s="2" t="n"/>
@@ -22725,7 +22725,7 @@
       </c>
       <c r="I322" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J322" s="1" t="n"/>
@@ -22814,10 +22814,10 @@
         <v>500000</v>
       </c>
       <c r="C324" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D324" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E324" s="2" t="n"/>
       <c r="F324" s="21" t="n">
@@ -22827,10 +22827,10 @@
         <v>500000</v>
       </c>
       <c r="H324" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I324" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J324" s="1" t="n"/>
       <c r="K324" s="1" t="n"/>
@@ -22970,10 +22970,10 @@
       </c>
       <c r="B329" s="21" t="n"/>
       <c r="C329" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D329" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E329" s="2" t="n"/>
       <c r="F329" s="21" t="inlineStr">
@@ -22982,10 +22982,10 @@
         </is>
       </c>
       <c r="H329" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I329" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J329" s="1" t="n"/>
       <c r="K329" s="1" t="n"/>
@@ -23051,7 +23051,7 @@
       </c>
       <c r="D331" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E331" s="2" t="n"/>
@@ -23072,7 +23072,7 @@
       </c>
       <c r="I331" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J331" s="1" t="n"/>
@@ -23161,10 +23161,10 @@
         <v>500000</v>
       </c>
       <c r="C333" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D333" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E333" s="2" t="n"/>
       <c r="F333" s="21" t="n">
@@ -23174,10 +23174,10 @@
         <v>500000</v>
       </c>
       <c r="H333" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I333" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J333" s="1" t="n"/>
       <c r="K333" s="1" t="n"/>
@@ -23205,10 +23205,10 @@
         <v>500000</v>
       </c>
       <c r="C334" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D334" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E334" s="2" t="n"/>
       <c r="F334" s="21" t="n"/>
@@ -23325,10 +23325,10 @@
       </c>
       <c r="B338" s="21" t="n"/>
       <c r="C338" s="21" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D338" s="21" t="n">
-        <v>47500</v>
+        <v>50000</v>
       </c>
       <c r="E338" s="21" t="n"/>
       <c r="F338" s="21" t="inlineStr">
@@ -23337,10 +23337,10 @@
         </is>
       </c>
       <c r="H338" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I338" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J338" s="1" t="n"/>
       <c r="K338" s="1" t="n"/>
@@ -23406,7 +23406,7 @@
       </c>
       <c r="D340" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E340" s="2" t="n"/>
@@ -23427,7 +23427,7 @@
       </c>
       <c r="I340" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J340" s="1" t="n"/>
@@ -23516,10 +23516,10 @@
         <v>500000</v>
       </c>
       <c r="C342" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D342" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E342" s="2" t="n"/>
       <c r="F342" s="21" t="n">
@@ -23529,10 +23529,10 @@
         <v>500000</v>
       </c>
       <c r="H342" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I342" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J342" s="1" t="n"/>
       <c r="K342" s="1" t="n"/>
@@ -23672,10 +23672,10 @@
       </c>
       <c r="B347" s="21" t="n"/>
       <c r="C347" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D347" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E347" s="2" t="n"/>
       <c r="F347" s="21" t="inlineStr">
@@ -23684,10 +23684,10 @@
         </is>
       </c>
       <c r="H347" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I347" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J347" s="1" t="n"/>
       <c r="K347" s="1" t="n"/>
@@ -23753,7 +23753,7 @@
       </c>
       <c r="D349" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E349" s="2" t="n"/>
@@ -23774,7 +23774,7 @@
       </c>
       <c r="I349" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J349" s="1" t="n"/>
@@ -23857,16 +23857,16 @@
     </row>
     <row r="351" ht="20.25" customHeight="1">
       <c r="A351" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B351" s="21" t="n">
         <v>500000</v>
       </c>
       <c r="C351" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D351" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E351" s="2" t="n"/>
       <c r="F351" s="21" t="n">
@@ -23876,10 +23876,10 @@
         <v>500000</v>
       </c>
       <c r="H351" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I351" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J351" s="1" t="n"/>
       <c r="K351" s="1" t="n"/>
@@ -24019,10 +24019,10 @@
       </c>
       <c r="B356" s="21" t="n"/>
       <c r="C356" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D356" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E356" s="2" t="n"/>
       <c r="F356" s="21" t="inlineStr">
@@ -24031,10 +24031,10 @@
         </is>
       </c>
       <c r="H356" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I356" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J356" s="1" t="n"/>
       <c r="K356" s="1" t="n"/>
@@ -24100,7 +24100,7 @@
       </c>
       <c r="D358" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E358" s="2" t="n"/>
@@ -24121,7 +24121,7 @@
       </c>
       <c r="I358" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J358" s="1" t="n"/>
@@ -24210,10 +24210,10 @@
         <v>500000</v>
       </c>
       <c r="C360" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D360" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E360" s="2" t="n"/>
       <c r="F360" s="21" t="n">
@@ -24223,10 +24223,10 @@
         <v>500000</v>
       </c>
       <c r="H360" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I360" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J360" s="1" t="n"/>
       <c r="K360" s="1" t="n"/>
@@ -24248,16 +24248,16 @@
     </row>
     <row r="361" ht="20.25" customHeight="1">
       <c r="A361" s="21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="B361" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="C361" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D361" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E361" s="2" t="n"/>
       <c r="F361" s="21" t="n"/>
@@ -24374,10 +24374,10 @@
       </c>
       <c r="B365" s="21" t="n"/>
       <c r="C365" s="21" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D365" s="21" t="n">
-        <v>72500</v>
+        <v>75000</v>
       </c>
       <c r="E365" s="2" t="n"/>
       <c r="F365" s="21" t="inlineStr">
@@ -24386,10 +24386,10 @@
         </is>
       </c>
       <c r="H365" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I365" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J365" s="1" t="n"/>
       <c r="K365" s="1" t="n"/>
@@ -24455,7 +24455,7 @@
       </c>
       <c r="D367" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E367" s="2" t="n"/>
@@ -24476,7 +24476,7 @@
       </c>
       <c r="I367" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J367" s="1" t="n"/>
@@ -24565,10 +24565,10 @@
         <v>1000000</v>
       </c>
       <c r="C369" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D369" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E369" s="2" t="n"/>
       <c r="F369" s="21" t="n">
@@ -24578,10 +24578,10 @@
         <v>500000</v>
       </c>
       <c r="H369" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I369" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J369" s="1" t="n"/>
       <c r="K369" s="1" t="n"/>
@@ -24609,10 +24609,10 @@
         <v>500000</v>
       </c>
       <c r="C370" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D370" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E370" s="4" t="n"/>
       <c r="F370" s="21" t="n"/>
@@ -24729,10 +24729,10 @@
       </c>
       <c r="B374" s="21" t="n"/>
       <c r="C374" s="21" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D374" s="21" t="n">
-        <v>72500</v>
+        <v>75000</v>
       </c>
       <c r="E374" s="4" t="n"/>
       <c r="F374" s="21" t="inlineStr">
@@ -24741,10 +24741,10 @@
         </is>
       </c>
       <c r="H374" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I374" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J374" s="1" t="n"/>
       <c r="K374" s="1" t="n"/>
@@ -24810,7 +24810,7 @@
       </c>
       <c r="D376" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E376" s="4" t="n"/>
@@ -24831,7 +24831,7 @@
       </c>
       <c r="I376" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J376" s="1" t="n"/>
@@ -24920,10 +24920,10 @@
         <v>500000</v>
       </c>
       <c r="C378" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D378" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E378" s="4" t="n"/>
       <c r="F378" s="21" t="n">
@@ -24933,10 +24933,10 @@
         <v>500000</v>
       </c>
       <c r="H378" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I378" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J378" s="1" t="n"/>
       <c r="K378" s="1" t="n"/>
@@ -25076,10 +25076,10 @@
       </c>
       <c r="B383" s="21" t="n"/>
       <c r="C383" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D383" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E383" s="4" t="n"/>
       <c r="F383" s="21" t="inlineStr">
@@ -25088,10 +25088,10 @@
         </is>
       </c>
       <c r="H383" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I383" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J383" s="1" t="n"/>
       <c r="K383" s="1" t="n"/>
@@ -25157,7 +25157,7 @@
       </c>
       <c r="D385" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E385" s="4" t="n"/>
@@ -25178,7 +25178,7 @@
       </c>
       <c r="I385" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J385" s="1" t="n"/>
@@ -25261,16 +25261,16 @@
     </row>
     <row r="387" ht="20.25" customHeight="1">
       <c r="A387" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B387" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="C387" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D387" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E387" s="4" t="n"/>
       <c r="F387" s="21" t="n">
@@ -25280,10 +25280,10 @@
         <v>500000</v>
       </c>
       <c r="H387" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I387" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J387" s="1" t="n"/>
       <c r="K387" s="1" t="n"/>
@@ -25305,16 +25305,16 @@
     </row>
     <row r="388" ht="20.25" customHeight="1">
       <c r="A388" s="21" t="n">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="B388" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="C388" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D388" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E388" s="4" t="n"/>
       <c r="F388" s="21" t="n"/>
@@ -25431,10 +25431,10 @@
       </c>
       <c r="B392" s="14" t="n"/>
       <c r="C392" s="14" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D392" s="21" t="n">
-        <v>97500</v>
+        <v>100000</v>
       </c>
       <c r="E392" s="5" t="n"/>
       <c r="F392" s="21" t="inlineStr">
@@ -25443,10 +25443,10 @@
         </is>
       </c>
       <c r="H392" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I392" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J392" s="1" t="n"/>
       <c r="K392" s="1" t="n"/>
@@ -25512,7 +25512,7 @@
       </c>
       <c r="D394" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E394" s="5" t="n"/>
@@ -25533,7 +25533,7 @@
       </c>
       <c r="I394" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J394" s="1" t="n"/>
@@ -25616,16 +25616,16 @@
     </row>
     <row r="396" ht="20.25" customHeight="1">
       <c r="A396" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B396" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="C396" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D396" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E396" s="5" t="n"/>
       <c r="F396" s="21" t="n">
@@ -25635,10 +25635,10 @@
         <v>1000000</v>
       </c>
       <c r="H396" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I396" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J396" s="1" t="n"/>
       <c r="K396" s="1" t="n"/>
@@ -25778,10 +25778,10 @@
       </c>
       <c r="B401" s="14" t="n"/>
       <c r="C401" s="14" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D401" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E401" s="5" t="n"/>
       <c r="F401" s="21" t="inlineStr">
@@ -25790,10 +25790,10 @@
         </is>
       </c>
       <c r="H401" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I401" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J401" s="1" t="n"/>
       <c r="K401" s="1" t="n"/>
@@ -25859,7 +25859,7 @@
       </c>
       <c r="D403" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E403" s="5" t="n"/>
@@ -25880,7 +25880,7 @@
       </c>
       <c r="I403" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J403" s="1" t="n"/>
@@ -25963,29 +25963,29 @@
     </row>
     <row r="405" ht="20.25" customHeight="1">
       <c r="A405" s="21" t="n">
-        <v>1.1</v>
+        <v>21</v>
       </c>
       <c r="B405" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="C405" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D405" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E405" s="5" t="n"/>
       <c r="F405" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G405" s="21" t="n">
         <v>500000</v>
       </c>
       <c r="H405" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I405" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J405" s="1" t="n"/>
       <c r="K405" s="1" t="n"/>
@@ -26018,10 +26018,10 @@
         <v>500000</v>
       </c>
       <c r="H406" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I406" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J406" s="1" t="n"/>
       <c r="K406" s="1" t="n"/>
@@ -26133,10 +26133,10 @@
       </c>
       <c r="B410" s="14" t="n"/>
       <c r="C410" s="14" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D410" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E410" s="5" t="n"/>
       <c r="F410" s="21" t="inlineStr">
@@ -26145,10 +26145,10 @@
         </is>
       </c>
       <c r="H410" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I410" s="21" t="n">
-        <v>47500</v>
+        <v>50000</v>
       </c>
       <c r="J410" s="1" t="n"/>
       <c r="K410" s="1" t="n"/>
@@ -26214,7 +26214,7 @@
       </c>
       <c r="D412" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E412" s="5" t="n"/>
@@ -26235,7 +26235,7 @@
       </c>
       <c r="I412" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J412" s="1" t="n"/>
@@ -26324,10 +26324,10 @@
         <v>500000</v>
       </c>
       <c r="C414" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D414" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E414" s="5" t="n"/>
       <c r="F414" s="21" t="n">
@@ -26337,10 +26337,10 @@
         <v>1000000</v>
       </c>
       <c r="H414" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I414" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J414" s="1" t="n"/>
       <c r="K414" s="1" t="n"/>
@@ -26480,10 +26480,10 @@
       </c>
       <c r="B419" s="14" t="n"/>
       <c r="C419" s="14" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D419" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E419" s="5" t="n"/>
       <c r="F419" s="21" t="inlineStr">
@@ -26492,10 +26492,10 @@
         </is>
       </c>
       <c r="H419" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I419" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J419" s="1" t="n"/>
       <c r="K419" s="1" t="n"/>
@@ -26561,7 +26561,7 @@
       </c>
       <c r="D421" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E421" s="5" t="n"/>
@@ -26582,7 +26582,7 @@
       </c>
       <c r="I421" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J421" s="1" t="n"/>
@@ -26671,10 +26671,10 @@
         <v>1000000</v>
       </c>
       <c r="C423" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D423" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E423" s="5" t="n"/>
       <c r="F423" s="21" t="n">
@@ -26684,10 +26684,10 @@
         <v>2000000</v>
       </c>
       <c r="H423" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I423" s="21" t="n">
-        <v>98750</v>
+        <v>100000</v>
       </c>
       <c r="J423" s="1" t="n"/>
       <c r="K423" s="1" t="n"/>
@@ -26827,10 +26827,10 @@
       </c>
       <c r="B428" s="14" t="n"/>
       <c r="C428" s="14" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D428" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E428" s="5" t="n"/>
       <c r="F428" s="14" t="inlineStr">
@@ -26839,10 +26839,10 @@
         </is>
       </c>
       <c r="H428" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I428" s="21" t="n">
-        <v>98750</v>
+        <v>100000</v>
       </c>
       <c r="J428" s="1" t="n"/>
       <c r="K428" s="1" t="n"/>
@@ -26908,7 +26908,7 @@
       </c>
       <c r="D430" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E430" s="5" t="n"/>
@@ -26929,7 +26929,7 @@
       </c>
       <c r="I430" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J430" s="1" t="n"/>
@@ -27018,10 +27018,10 @@
         <v>1000000</v>
       </c>
       <c r="C432" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D432" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E432" s="5" t="n"/>
       <c r="F432" s="21" t="n">
@@ -27031,10 +27031,10 @@
         <v>1000000</v>
       </c>
       <c r="H432" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I432" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J432" s="1" t="n"/>
       <c r="K432" s="1" t="n"/>
@@ -27174,10 +27174,10 @@
       </c>
       <c r="B437" s="14" t="n"/>
       <c r="C437" s="14" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D437" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E437" s="5" t="n"/>
       <c r="F437" s="14" t="inlineStr">
@@ -27186,10 +27186,10 @@
         </is>
       </c>
       <c r="H437" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I437" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J437" s="1" t="n"/>
       <c r="K437" s="1" t="n"/>
@@ -27255,7 +27255,7 @@
       </c>
       <c r="D439" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E439" s="5" t="n"/>
@@ -27276,7 +27276,7 @@
       </c>
       <c r="I439" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J439" s="1" t="n"/>
@@ -27365,10 +27365,10 @@
         <v>500000</v>
       </c>
       <c r="C441" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D441" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E441" s="5" t="n"/>
       <c r="F441" s="21" t="n">
@@ -27378,10 +27378,10 @@
         <v>2000000</v>
       </c>
       <c r="H441" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I441" s="21" t="n">
-        <v>98750</v>
+        <v>100000</v>
       </c>
       <c r="J441" s="1" t="n"/>
       <c r="K441" s="1" t="n"/>
@@ -27521,10 +27521,10 @@
       </c>
       <c r="B446" s="14" t="n"/>
       <c r="C446" s="14" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D446" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E446" s="5" t="n"/>
       <c r="F446" s="14" t="inlineStr">
@@ -27533,10 +27533,10 @@
         </is>
       </c>
       <c r="H446" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I446" s="21" t="n">
-        <v>98750</v>
+        <v>100000</v>
       </c>
       <c r="J446" s="1" t="n"/>
       <c r="K446" s="1" t="n"/>
@@ -27602,7 +27602,7 @@
       </c>
       <c r="D448" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E448" s="5" t="n"/>
@@ -27623,7 +27623,7 @@
       </c>
       <c r="I448" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J448" s="1" t="n"/>
@@ -27712,23 +27712,23 @@
         <v>1000000</v>
       </c>
       <c r="C450" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D450" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E450" s="5" t="n"/>
       <c r="F450" s="21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G450" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="H450" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I450" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J450" s="1" t="n"/>
       <c r="K450" s="1" t="n"/>
@@ -27868,10 +27868,10 @@
       </c>
       <c r="B455" s="14" t="n"/>
       <c r="C455" s="14" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D455" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E455" s="5" t="n"/>
       <c r="F455" s="14" t="inlineStr">
@@ -27880,10 +27880,10 @@
         </is>
       </c>
       <c r="H455" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I455" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J455" s="1" t="n"/>
       <c r="K455" s="1" t="n"/>
@@ -27949,7 +27949,7 @@
       </c>
       <c r="D457" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E457" s="5" t="n"/>
@@ -27970,7 +27970,7 @@
       </c>
       <c r="I457" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J457" s="1" t="n"/>
@@ -28053,16 +28053,16 @@
     </row>
     <row r="459" ht="20.25" customHeight="1">
       <c r="A459" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B459" s="21" t="n">
         <v>500000</v>
       </c>
       <c r="C459" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D459" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E459" s="5" t="n"/>
       <c r="F459" s="21" t="n">
@@ -28072,10 +28072,10 @@
         <v>1000000</v>
       </c>
       <c r="H459" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I459" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J459" s="1" t="n"/>
       <c r="K459" s="1" t="n"/>
@@ -28103,10 +28103,10 @@
         <v>1000000</v>
       </c>
       <c r="C460" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D460" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E460" s="5" t="n"/>
       <c r="F460" s="21" t="n"/>
@@ -28223,10 +28223,10 @@
       </c>
       <c r="B464" s="14" t="n"/>
       <c r="C464" s="14" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D464" s="21" t="n">
-        <v>72500</v>
+        <v>75000</v>
       </c>
       <c r="E464" s="5" t="n"/>
       <c r="F464" s="14" t="inlineStr">
@@ -28235,10 +28235,10 @@
         </is>
       </c>
       <c r="H464" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I464" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J464" s="1" t="n"/>
       <c r="K464" s="1" t="n"/>
@@ -28304,7 +28304,7 @@
       </c>
       <c r="D466" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E466" s="5" t="n"/>
@@ -28325,7 +28325,7 @@
       </c>
       <c r="I466" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J466" s="1" t="n"/>
@@ -28408,29 +28408,29 @@
     </row>
     <row r="468" ht="20.25" customHeight="1">
       <c r="A468" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B468" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="C468" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D468" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E468" s="5" t="n"/>
       <c r="F468" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G468" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="H468" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I468" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J468" s="1" t="n"/>
       <c r="K468" s="1" t="n"/>
@@ -28458,10 +28458,10 @@
         <v>1000000</v>
       </c>
       <c r="C469" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D469" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="E469" s="5" t="n"/>
       <c r="F469" s="21" t="n"/>
@@ -28578,10 +28578,10 @@
       </c>
       <c r="B473" s="14" t="n"/>
       <c r="C473" s="14" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D473" s="21" t="n">
-        <v>97500</v>
+        <v>100000</v>
       </c>
       <c r="E473" s="5" t="n"/>
       <c r="F473" s="14" t="inlineStr">
@@ -28590,10 +28590,10 @@
         </is>
       </c>
       <c r="H473" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I473" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J473" s="1" t="n"/>
       <c r="K473" s="1" t="n"/>
@@ -28659,7 +28659,7 @@
       </c>
       <c r="D475" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E475" s="5" t="n"/>
@@ -28680,7 +28680,7 @@
       </c>
       <c r="I475" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J475" s="1" t="n"/>
@@ -28763,16 +28763,16 @@
     </row>
     <row r="477" ht="20.25" customHeight="1">
       <c r="A477" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B477" s="21" t="n">
         <v>500000</v>
       </c>
       <c r="C477" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D477" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E477" s="5" t="n"/>
       <c r="F477" s="21" t="n">
@@ -28782,10 +28782,10 @@
         <v>500000</v>
       </c>
       <c r="H477" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I477" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J477" s="1" t="n"/>
       <c r="K477" s="1" t="n"/>
@@ -28925,10 +28925,10 @@
       </c>
       <c r="B482" s="14" t="n"/>
       <c r="C482" s="14" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D482" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E482" s="5" t="n"/>
       <c r="F482" s="14" t="inlineStr">
@@ -28937,10 +28937,10 @@
         </is>
       </c>
       <c r="H482" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I482" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J482" s="1" t="n"/>
       <c r="K482" s="1" t="n"/>
@@ -29006,7 +29006,7 @@
       </c>
       <c r="D484" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E484" s="5" t="n"/>
@@ -29027,7 +29027,7 @@
       </c>
       <c r="I484" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J484" s="1" t="n"/>
@@ -29116,10 +29116,10 @@
         <v>500000</v>
       </c>
       <c r="C486" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D486" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E486" s="5" t="n"/>
       <c r="F486" s="21" t="n">
@@ -29129,10 +29129,10 @@
         <v>500000</v>
       </c>
       <c r="H486" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I486" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J486" s="1" t="n"/>
       <c r="K486" s="1" t="n"/>
@@ -29160,10 +29160,10 @@
         <v>500000</v>
       </c>
       <c r="C487" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D487" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E487" s="5" t="n"/>
       <c r="F487" s="21" t="n"/>
@@ -29280,10 +29280,10 @@
       </c>
       <c r="B491" s="14" t="n"/>
       <c r="C491" s="14" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D491" s="21" t="n">
-        <v>47500</v>
+        <v>50000</v>
       </c>
       <c r="E491" s="5" t="n"/>
       <c r="F491" s="14" t="inlineStr">
@@ -29292,10 +29292,10 @@
         </is>
       </c>
       <c r="H491" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I491" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J491" s="1" t="n"/>
       <c r="K491" s="1" t="n"/>
@@ -29361,7 +29361,7 @@
       </c>
       <c r="D493" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E493" s="5" t="n"/>
@@ -29382,7 +29382,7 @@
       </c>
       <c r="I493" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="J493" s="1" t="n"/>
@@ -29471,10 +29471,10 @@
         <v>500000</v>
       </c>
       <c r="C495" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D495" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E495" s="5" t="n"/>
       <c r="F495" s="21" t="n">
@@ -29484,10 +29484,10 @@
         <v>500000</v>
       </c>
       <c r="H495" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I495" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J495" s="1" t="n"/>
       <c r="K495" s="1" t="n"/>
@@ -29520,10 +29520,10 @@
         <v>500000</v>
       </c>
       <c r="H496" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I496" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J496" s="1" t="n"/>
       <c r="K496" s="1" t="n"/>
@@ -29556,10 +29556,10 @@
         <v>500000</v>
       </c>
       <c r="H497" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I497" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="J497" s="1" t="n"/>
       <c r="K497" s="1" t="n"/>
@@ -29592,10 +29592,10 @@
         <v>1000000</v>
       </c>
       <c r="H498" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I498" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="J498" s="1" t="n"/>
       <c r="K498" s="1" t="n"/>
@@ -29651,10 +29651,10 @@
       </c>
       <c r="B500" s="14" t="n"/>
       <c r="C500" s="14" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D500" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E500" s="5" t="n"/>
       <c r="F500" s="14" t="inlineStr">
@@ -29663,10 +29663,10 @@
         </is>
       </c>
       <c r="H500" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="I500" s="21" t="n">
-        <v>120000</v>
+        <v>125000</v>
       </c>
       <c r="J500" s="1" t="n"/>
       <c r="K500" s="1" t="n"/>
@@ -29722,7 +29722,7 @@
       </c>
       <c r="D502" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E502" s="5" t="n"/>
@@ -29743,7 +29743,7 @@
       </c>
       <c r="I502" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="K502" s="1" t="n"/>
@@ -29813,10 +29813,10 @@
         <v>2000000</v>
       </c>
       <c r="C504" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D504" s="21" t="n">
-        <v>98750</v>
+        <v>100000</v>
       </c>
       <c r="E504" s="5" t="n"/>
       <c r="F504" s="21" t="n">
@@ -29826,10 +29826,10 @@
         <v>500000</v>
       </c>
       <c r="H504" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I504" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="505" ht="20.25" customHeight="1">
@@ -29884,10 +29884,10 @@
       </c>
       <c r="B509" s="14" t="n"/>
       <c r="C509" s="14" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D509" s="21" t="n">
-        <v>98750</v>
+        <v>100000</v>
       </c>
       <c r="E509" s="5" t="n"/>
       <c r="F509" s="14" t="inlineStr">
@@ -29897,10 +29897,10 @@
       </c>
       <c r="G509" s="14" t="n"/>
       <c r="H509" s="14" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I509" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="510" ht="16.5" customHeight="1"/>
@@ -29922,7 +29922,7 @@
       </c>
       <c r="D511" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E511" s="5" t="n"/>
@@ -29943,7 +29943,7 @@
       </c>
       <c r="I511" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
     </row>
@@ -29998,10 +29998,10 @@
         <v>500000</v>
       </c>
       <c r="C513" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D513" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E513" s="5" t="n"/>
       <c r="F513" s="21" t="n">
@@ -30011,10 +30011,10 @@
         <v>500000</v>
       </c>
       <c r="H513" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I513" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="514" ht="20.25" customHeight="1">
@@ -30069,10 +30069,10 @@
       </c>
       <c r="B518" s="14" t="n"/>
       <c r="C518" s="14" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D518" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="E518" s="5" t="n"/>
       <c r="F518" s="14" t="inlineStr">
@@ -30081,10 +30081,10 @@
         </is>
       </c>
       <c r="H518" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I518" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="519" ht="16.5" customHeight="1"/>
@@ -30106,7 +30106,7 @@
       </c>
       <c r="D520" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="F520" s="14" t="inlineStr">
@@ -30126,7 +30126,7 @@
       </c>
       <c r="I520" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
     </row>
@@ -30174,16 +30174,16 @@
     </row>
     <row r="522" ht="20.25" customHeight="1">
       <c r="A522" s="21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B522" s="21" t="n">
         <v>500000</v>
       </c>
       <c r="C522" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D522" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="F522" s="21" t="n">
         <v>10</v>
@@ -30192,10 +30192,10 @@
         <v>1000000</v>
       </c>
       <c r="H522" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I522" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="523" ht="20.25" customHeight="1">
@@ -30210,10 +30210,10 @@
         <v>1000000</v>
       </c>
       <c r="H523" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I523" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="524" ht="20.25" customHeight="1">
@@ -30254,10 +30254,10 @@
       </c>
       <c r="B527" s="14" t="n"/>
       <c r="C527" s="14" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D527" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="F527" s="14" t="inlineStr">
         <is>
@@ -30265,10 +30265,10 @@
         </is>
       </c>
       <c r="H527" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I527" s="21" t="n">
-        <v>97500</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="528" ht="16.5" customHeight="1"/>
@@ -30290,7 +30290,7 @@
       </c>
       <c r="D529" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="F529" s="14" t="inlineStr">
@@ -30310,7 +30310,7 @@
       </c>
       <c r="I529" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
     </row>
@@ -30364,10 +30364,10 @@
         <v>1000000</v>
       </c>
       <c r="C531" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D531" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="F531" s="21" t="n">
         <v>10</v>
@@ -30376,24 +30376,24 @@
         <v>2000000</v>
       </c>
       <c r="H531" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I531" s="21" t="n">
-        <v>98750</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="532" ht="20.25" customHeight="1">
       <c r="A532" s="21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="B532" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="C532" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D532" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="F532" s="21" t="n"/>
       <c r="G532" s="21" t="n"/>
@@ -30438,10 +30438,10 @@
       </c>
       <c r="B536" s="14" t="n"/>
       <c r="C536" s="14" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D536" s="21" t="n">
-        <v>97500</v>
+        <v>100000</v>
       </c>
       <c r="F536" s="14" t="inlineStr">
         <is>
@@ -30450,10 +30450,10 @@
       </c>
       <c r="G536" s="14" t="n"/>
       <c r="H536" s="14" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I536" s="21" t="n">
-        <v>98750</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="537" ht="16.5" customHeight="1"/>
@@ -30475,7 +30475,7 @@
       </c>
       <c r="D538" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="F538" s="14" t="inlineStr">
@@ -30495,7 +30495,7 @@
       </c>
       <c r="I538" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
     </row>
@@ -30543,16 +30543,16 @@
     </row>
     <row r="540" ht="20.25" customHeight="1">
       <c r="A540" s="21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="B540" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="C540" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D540" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="F540" s="21" t="n">
         <v>5</v>
@@ -30561,10 +30561,10 @@
         <v>1000000</v>
       </c>
       <c r="H540" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I540" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="541" ht="20.25" customHeight="1">
@@ -30573,16 +30573,16 @@
       <c r="C541" s="21" t="n"/>
       <c r="D541" s="21" t="n"/>
       <c r="F541" s="21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G541" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="H541" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I541" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="542" ht="20.25" customHeight="1">
@@ -30623,10 +30623,10 @@
       </c>
       <c r="B545" s="14" t="n"/>
       <c r="C545" s="14" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D545" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="F545" s="14" t="inlineStr">
         <is>
@@ -30635,10 +30635,10 @@
       </c>
       <c r="G545" s="14" t="n"/>
       <c r="H545" s="14" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I545" s="21" t="n">
-        <v>97500</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="546" ht="16.5" customHeight="1"/>
@@ -30660,7 +30660,7 @@
       </c>
       <c r="D547" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="F547" s="14" t="inlineStr">
@@ -30680,7 +30680,7 @@
       </c>
       <c r="I547" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
     </row>
@@ -30728,28 +30728,28 @@
     </row>
     <row r="549" ht="20.25" customHeight="1">
       <c r="A549" s="21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="B549" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="C549" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D549" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="F549" s="21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G549" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="H549" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I549" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="550" ht="20.25" customHeight="1">
@@ -30800,10 +30800,10 @@
       </c>
       <c r="B554" s="14" t="n"/>
       <c r="C554" s="14" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D554" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="F554" s="14" t="inlineStr">
         <is>
@@ -30812,10 +30812,10 @@
       </c>
       <c r="G554" s="14" t="n"/>
       <c r="H554" s="14" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I554" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="555" ht="16.5" customHeight="1"/>
@@ -30837,7 +30837,7 @@
       </c>
       <c r="D556" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="F556" s="14" t="inlineStr">
@@ -30857,7 +30857,7 @@
       </c>
       <c r="I556" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
     </row>
@@ -30905,16 +30905,16 @@
     </row>
     <row r="558" ht="20.25" customHeight="1">
       <c r="A558" s="21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="B558" s="21" t="n">
         <v>1000000</v>
       </c>
       <c r="C558" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D558" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="F558" s="21" t="n">
         <v>5</v>
@@ -30923,10 +30923,10 @@
         <v>500000</v>
       </c>
       <c r="H558" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I558" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="559" ht="20.25" customHeight="1">
@@ -30977,10 +30977,10 @@
       </c>
       <c r="B563" s="14" t="n"/>
       <c r="C563" s="14" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D563" s="21" t="n">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="F563" s="14" t="inlineStr">
         <is>
@@ -30989,10 +30989,10 @@
       </c>
       <c r="G563" s="14" t="n"/>
       <c r="H563" s="14" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I563" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="564" ht="16.5" customHeight="1"/>
@@ -31014,7 +31014,7 @@
       </c>
       <c r="D565" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="F565" s="14" t="inlineStr">
@@ -31034,7 +31034,7 @@
       </c>
       <c r="I565" s="21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
     </row>
@@ -31088,10 +31088,10 @@
         <v>500000</v>
       </c>
       <c r="C567" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D567" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="F567" s="21" t="n">
         <v>5</v>
@@ -31100,10 +31100,10 @@
         <v>500000</v>
       </c>
       <c r="H567" s="21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I567" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="568" ht="20.25" customHeight="1">
@@ -31154,10 +31154,10 @@
       </c>
       <c r="B572" s="14" t="n"/>
       <c r="C572" s="14" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D572" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="F572" s="14" t="inlineStr">
         <is>
@@ -31166,10 +31166,10 @@
       </c>
       <c r="G572" s="14" t="n"/>
       <c r="H572" s="14" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I572" s="21" t="n">
-        <v>23750</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="573" ht="16.5" customHeight="1"/>
